--- a/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.04464599060787</v>
+        <v>8.044645990607924</v>
       </c>
       <c r="D2">
-        <v>10.23380679410835</v>
+        <v>10.23380679410853</v>
       </c>
       <c r="E2">
-        <v>10.36479987972726</v>
+        <v>10.36479987972747</v>
       </c>
       <c r="F2">
-        <v>70.51433787751785</v>
+        <v>70.51433787751846</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>66.62237815433147</v>
+        <v>66.6223781543318</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>40.5188998739665</v>
+        <v>40.51889987396668</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.325685718397305</v>
+        <v>7.325685718397507</v>
       </c>
       <c r="D3">
-        <v>9.110407188996108</v>
+        <v>9.110407188996303</v>
       </c>
       <c r="E3">
-        <v>9.742420441851458</v>
+        <v>9.742420441851648</v>
       </c>
       <c r="F3">
-        <v>63.65013163860647</v>
+        <v>63.65013163860718</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>61.02747608928183</v>
+        <v>61.02747608928212</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>37.08575123453122</v>
+        <v>37.08575123453139</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.887528288056455</v>
+        <v>6.887528288056441</v>
       </c>
       <c r="D4">
-        <v>8.450458650260151</v>
+        <v>8.450458650260071</v>
       </c>
       <c r="E4">
-        <v>9.358852900337045</v>
+        <v>9.35885290033697</v>
       </c>
       <c r="F4">
-        <v>59.58189498288322</v>
+        <v>59.5818949828834</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>57.57516719930295</v>
+        <v>57.57516719930299</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>34.97133544331294</v>
+        <v>34.97133544331296</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.708454893688716</v>
+        <v>6.708454893688584</v>
       </c>
       <c r="D5">
-        <v>8.18620646322807</v>
+        <v>8.186206463228016</v>
       </c>
       <c r="E5">
-        <v>9.201355174387416</v>
+        <v>9.201355174387324</v>
       </c>
       <c r="F5">
         <v>57.94591244339835</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>56.15528368573526</v>
+        <v>56.15528368573521</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>34.1025711796854</v>
+        <v>34.10257117968541</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.678657310195833</v>
+        <v>6.6786573101957</v>
       </c>
       <c r="D6">
-        <v>8.142546743332742</v>
+        <v>8.142546743332437</v>
       </c>
       <c r="E6">
-        <v>9.17511312502392</v>
+        <v>9.175113125023687</v>
       </c>
       <c r="F6">
-        <v>57.6752444343872</v>
+        <v>57.67524443438632</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>55.91852272588675</v>
+        <v>55.91852272588643</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>33.95775574917387</v>
+        <v>33.95775574917369</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.885116804735671</v>
+        <v>6.885116804735715</v>
       </c>
       <c r="D7">
-        <v>8.446878880133486</v>
+        <v>8.446878880133598</v>
       </c>
       <c r="E7">
-        <v>9.356734493066131</v>
+        <v>9.356734493066268</v>
       </c>
       <c r="F7">
-        <v>59.55975877144044</v>
+        <v>59.5597587714408</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>57.55608042583174</v>
+        <v>57.55608042583198</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>34.9596537831912</v>
+        <v>34.95965378319135</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.795085404526088</v>
+        <v>7.795085404526421</v>
       </c>
       <c r="D8">
-        <v>9.838190457822318</v>
+        <v>9.838190457822652</v>
       </c>
       <c r="E8">
-        <v>10.14986200493246</v>
+        <v>10.14986200493268</v>
       </c>
       <c r="F8">
-        <v>68.10607209268646</v>
+        <v>68.10607209268765</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>64.69041742617229</v>
+        <v>64.69041742617277</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>39.3324938408649</v>
+        <v>39.33249384086518</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.71399913710782</v>
+        <v>9.713999137107875</v>
       </c>
       <c r="D9">
         <v>13.03670149963854</v>
       </c>
       <c r="E9">
-        <v>11.7701609120852</v>
+        <v>11.77016091208518</v>
       </c>
       <c r="F9">
-        <v>87.28110138218962</v>
+        <v>87.28110138218943</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>79.24826467750559</v>
+        <v>79.2482646775054</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>48.29568509951284</v>
+        <v>48.29568509951273</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D10">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E10">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F10">
         <v>108.231294174135</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D11">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E11">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F11">
         <v>108.231294174135</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D12">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E12">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F12">
         <v>108.231294174135</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D13">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E13">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F13">
         <v>108.231294174135</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D14">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E14">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F14">
         <v>108.231294174135</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D15">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E15">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F15">
         <v>108.231294174135</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D16">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E16">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F16">
         <v>108.231294174135</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D17">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E17">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F17">
         <v>108.231294174135</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D18">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E18">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F18">
         <v>108.231294174135</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D19">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E19">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F19">
         <v>108.231294174135</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D20">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E20">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F20">
         <v>108.231294174135</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D21">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E21">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F21">
         <v>108.231294174135</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D22">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E22">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F22">
         <v>108.231294174135</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D23">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E23">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F23">
         <v>108.231294174135</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D24">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E24">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F24">
         <v>108.231294174135</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.66110127709252</v>
+        <v>11.66110127709262</v>
       </c>
       <c r="D25">
-        <v>16.67474214242201</v>
+        <v>16.674742142422</v>
       </c>
       <c r="E25">
-        <v>13.37227781240263</v>
+        <v>13.37227781240246</v>
       </c>
       <c r="F25">
         <v>108.231294174135</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>93.23274126196118</v>
+        <v>93.23274126196107</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.044645990607924</v>
+        <v>8.04464599060787</v>
       </c>
       <c r="D2">
-        <v>10.23380679410853</v>
+        <v>10.23380679410835</v>
       </c>
       <c r="E2">
-        <v>10.36479987972747</v>
+        <v>10.36479987972726</v>
       </c>
       <c r="F2">
-        <v>70.51433787751846</v>
+        <v>70.51433787751785</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>66.6223781543318</v>
+        <v>66.62237815433147</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>40.51889987396668</v>
+        <v>40.5188998739665</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.325685718397507</v>
+        <v>7.325685718397305</v>
       </c>
       <c r="D3">
-        <v>9.110407188996303</v>
+        <v>9.110407188996108</v>
       </c>
       <c r="E3">
-        <v>9.742420441851648</v>
+        <v>9.742420441851458</v>
       </c>
       <c r="F3">
-        <v>63.65013163860718</v>
+        <v>63.65013163860647</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>61.02747608928212</v>
+        <v>61.02747608928183</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>37.08575123453139</v>
+        <v>37.08575123453122</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.887528288056441</v>
+        <v>6.887528288056455</v>
       </c>
       <c r="D4">
-        <v>8.450458650260071</v>
+        <v>8.450458650260151</v>
       </c>
       <c r="E4">
-        <v>9.35885290033697</v>
+        <v>9.358852900337045</v>
       </c>
       <c r="F4">
-        <v>59.5818949828834</v>
+        <v>59.58189498288322</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>57.57516719930299</v>
+        <v>57.57516719930295</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>34.97133544331296</v>
+        <v>34.97133544331294</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.708454893688584</v>
+        <v>6.708454893688716</v>
       </c>
       <c r="D5">
-        <v>8.186206463228016</v>
+        <v>8.18620646322807</v>
       </c>
       <c r="E5">
-        <v>9.201355174387324</v>
+        <v>9.201355174387416</v>
       </c>
       <c r="F5">
         <v>57.94591244339835</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>56.15528368573521</v>
+        <v>56.15528368573526</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>34.10257117968541</v>
+        <v>34.1025711796854</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.6786573101957</v>
+        <v>6.678657310195833</v>
       </c>
       <c r="D6">
-        <v>8.142546743332437</v>
+        <v>8.142546743332742</v>
       </c>
       <c r="E6">
-        <v>9.175113125023687</v>
+        <v>9.17511312502392</v>
       </c>
       <c r="F6">
-        <v>57.67524443438632</v>
+        <v>57.6752444343872</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>55.91852272588643</v>
+        <v>55.91852272588675</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>33.95775574917369</v>
+        <v>33.95775574917387</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.885116804735715</v>
+        <v>6.885116804735671</v>
       </c>
       <c r="D7">
-        <v>8.446878880133598</v>
+        <v>8.446878880133486</v>
       </c>
       <c r="E7">
-        <v>9.356734493066268</v>
+        <v>9.356734493066131</v>
       </c>
       <c r="F7">
-        <v>59.5597587714408</v>
+        <v>59.55975877144044</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>57.55608042583198</v>
+        <v>57.55608042583174</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>34.95965378319135</v>
+        <v>34.9596537831912</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.795085404526421</v>
+        <v>7.795085404526088</v>
       </c>
       <c r="D8">
-        <v>9.838190457822652</v>
+        <v>9.838190457822318</v>
       </c>
       <c r="E8">
-        <v>10.14986200493268</v>
+        <v>10.14986200493246</v>
       </c>
       <c r="F8">
-        <v>68.10607209268765</v>
+        <v>68.10607209268646</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>64.69041742617277</v>
+        <v>64.69041742617229</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>39.33249384086518</v>
+        <v>39.3324938408649</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.713999137107875</v>
+        <v>9.71399913710782</v>
       </c>
       <c r="D9">
         <v>13.03670149963854</v>
       </c>
       <c r="E9">
-        <v>11.77016091208518</v>
+        <v>11.7701609120852</v>
       </c>
       <c r="F9">
-        <v>87.28110138218943</v>
+        <v>87.28110138218962</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>79.2482646775054</v>
+        <v>79.24826467750559</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>48.29568509951273</v>
+        <v>48.29568509951284</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D10">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E10">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F10">
         <v>108.231294174135</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D11">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E11">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F11">
         <v>108.231294174135</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D12">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E12">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F12">
         <v>108.231294174135</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D13">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E13">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F13">
         <v>108.231294174135</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D14">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E14">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F14">
         <v>108.231294174135</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D15">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E15">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F15">
         <v>108.231294174135</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D16">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E16">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F16">
         <v>108.231294174135</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D17">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E17">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F17">
         <v>108.231294174135</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D18">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E18">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F18">
         <v>108.231294174135</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D19">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E19">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F19">
         <v>108.231294174135</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D20">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E20">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F20">
         <v>108.231294174135</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D21">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E21">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F21">
         <v>108.231294174135</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D22">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E22">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F22">
         <v>108.231294174135</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D23">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E23">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F23">
         <v>108.231294174135</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D24">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E24">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F24">
         <v>108.231294174135</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.66110127709262</v>
+        <v>11.66110127709252</v>
       </c>
       <c r="D25">
-        <v>16.674742142422</v>
+        <v>16.67474214242201</v>
       </c>
       <c r="E25">
-        <v>13.37227781240246</v>
+        <v>13.37227781240263</v>
       </c>
       <c r="F25">
         <v>108.231294174135</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>93.23274126196107</v>
+        <v>93.23274126196118</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.04464599060787</v>
+        <v>8.000825173037352</v>
       </c>
       <c r="D2">
-        <v>10.23380679410835</v>
+        <v>10.09397481705305</v>
       </c>
       <c r="E2">
-        <v>10.36479987972726</v>
+        <v>10.17809088133726</v>
       </c>
       <c r="F2">
-        <v>70.51433787751785</v>
+        <v>69.97940632005829</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.865775733257855</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,16 +439,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>66.62237815433147</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>66.21163763128294</v>
       </c>
       <c r="L2">
-        <v>40.5188998739665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>40.27879254370988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.325685718397305</v>
+        <v>7.28835763871852</v>
       </c>
       <c r="D3">
-        <v>9.110407188996108</v>
+        <v>8.993590859905924</v>
       </c>
       <c r="E3">
-        <v>9.742420441851458</v>
+        <v>9.55320346744894</v>
       </c>
       <c r="F3">
-        <v>63.65013163860647</v>
+        <v>63.23839787143779</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.909410956445768</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,16 +480,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>61.02747608928183</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>60.66350995315973</v>
       </c>
       <c r="L3">
-        <v>37.08575123453122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>36.87173097334863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.887528288056455</v>
+        <v>6.853631039026892</v>
       </c>
       <c r="D4">
-        <v>8.450458650260151</v>
+        <v>8.347681738705774</v>
       </c>
       <c r="E4">
-        <v>9.358852900337045</v>
+        <v>9.166821016736106</v>
       </c>
       <c r="F4">
-        <v>59.58189498288322</v>
+        <v>59.24394308788317</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.934851959821797</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,16 +521,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>57.57516719930295</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>57.23683076212743</v>
       </c>
       <c r="L4">
-        <v>34.97133544331294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>34.77124038297945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,19 +541,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.708454893688716</v>
+        <v>6.675868327508076</v>
       </c>
       <c r="D5">
-        <v>8.18620646322807</v>
+        <v>8.089268153024939</v>
       </c>
       <c r="E5">
-        <v>9.201355174387416</v>
+        <v>9.007897801719814</v>
       </c>
       <c r="F5">
-        <v>57.94591244339835</v>
+        <v>57.63828241061388</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.945000981992845</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,16 +562,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>56.15528368573526</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>55.82696191233671</v>
       </c>
       <c r="L5">
-        <v>34.1025711796854</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>33.90783089559652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.678657310195833</v>
+        <v>6.646284195194567</v>
       </c>
       <c r="D6">
-        <v>8.142546743332742</v>
+        <v>8.051980243940488</v>
       </c>
       <c r="E6">
-        <v>9.17511312502392</v>
+        <v>8.981403042859959</v>
       </c>
       <c r="F6">
-        <v>57.6752444343872</v>
+        <v>57.37268084436893</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.946675835134462</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,16 +603,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>55.91852272588675</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>55.59184530606929</v>
       </c>
       <c r="L6">
-        <v>33.95775574917387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>33.76388962014137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.885116804735671</v>
+        <v>6.851237534215368</v>
       </c>
       <c r="D7">
-        <v>8.446878880133486</v>
+        <v>8.344180083640122</v>
       </c>
       <c r="E7">
-        <v>9.356734493066131</v>
+        <v>9.164684473292176</v>
       </c>
       <c r="F7">
-        <v>59.55975877144044</v>
+        <v>59.22221401982335</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.934989586225645</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,16 +644,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>57.55608042583174</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>57.21788044136884</v>
       </c>
       <c r="L7">
-        <v>34.9596537831912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>34.75963203002503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.795085404526088</v>
+        <v>7.753659704132581</v>
       </c>
       <c r="D8">
-        <v>9.838190457822318</v>
+        <v>9.706417782040685</v>
       </c>
       <c r="E8">
-        <v>10.14986200493246</v>
+        <v>9.962587671148475</v>
       </c>
       <c r="F8">
-        <v>68.10607209268646</v>
+        <v>67.61455258835414</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.88118988424335</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,16 +685,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>64.69041742617229</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>64.29671626364126</v>
       </c>
       <c r="L8">
-        <v>39.3324938408649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>39.10197732896998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.71399913710782</v>
+        <v>9.647805012030743</v>
       </c>
       <c r="D9">
-        <v>13.03670149963854</v>
+        <v>12.8339927305561</v>
       </c>
       <c r="E9">
-        <v>11.7701609120852</v>
+        <v>11.57709376803466</v>
       </c>
       <c r="F9">
-        <v>87.28110138218962</v>
+        <v>86.40239895832707</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.755275818299266</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,16 +726,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>79.24826467750559</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>78.68498256396738</v>
       </c>
       <c r="L9">
-        <v>48.29568509951284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>47.96688704118709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D10">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E10">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F10">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,16 +767,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L10">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D11">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E11">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F11">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,16 +808,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L11">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D12">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E12">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F12">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,16 +849,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L12">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D13">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E13">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F13">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,16 +890,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L13">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D14">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E14">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F14">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,16 +931,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L14">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D15">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E15">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F15">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,16 +972,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L15">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D16">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E16">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F16">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,16 +1013,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L16">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D17">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E17">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F17">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,16 +1054,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L17">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D18">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E18">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F18">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,16 +1095,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L18">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D19">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E19">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F19">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,16 +1136,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L19">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D20">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E20">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F20">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,16 +1177,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L20">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D21">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E21">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F21">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,16 +1218,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L21">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D22">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E22">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F22">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,16 +1259,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L22">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D23">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E23">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F23">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,16 +1300,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L23">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D24">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E24">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F24">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,16 +1341,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L24">
-        <v>56.94347992945919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>56.34267154382808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.66110127709252</v>
+        <v>11.52588364046226</v>
       </c>
       <c r="D25">
-        <v>16.67474214242201</v>
+        <v>16.31093483341245</v>
       </c>
       <c r="E25">
-        <v>13.37227781240263</v>
+        <v>13.12194215434689</v>
       </c>
       <c r="F25">
-        <v>108.231294174135</v>
+        <v>106.4751059876882</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.611445147652141</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>93.23274126196118</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>92.21821364595813</v>
       </c>
       <c r="L25">
-        <v>56.94347992945919</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>56.34267154382808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
@@ -424,158 +424,1124 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9.622015671733521</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6.276928128577347</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.367838909015642</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21.05620361373649</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>23.02506934621791</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.345852211664042</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.933435923605177</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.66312112182858</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.480992784393846</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.23540544382398</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.22054191352654</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>9.342666294220708</v>
+      </c>
+      <c r="D3">
+        <v>6.083985064854381</v>
+      </c>
+      <c r="E3">
+        <v>8.344581140721667</v>
+      </c>
+      <c r="F3">
+        <v>21.11520187138739</v>
+      </c>
+      <c r="G3">
+        <v>23.14678773568875</v>
+      </c>
+      <c r="H3">
+        <v>9.48757386806343</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>6.00288374596452</v>
+      </c>
+      <c r="K3">
+        <v>19.3332479753962</v>
+      </c>
+      <c r="L3">
+        <v>5.520644770975551</v>
+      </c>
+      <c r="M3">
+        <v>15.36994167188241</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>15.42253552647665</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9.172712533339961</v>
+      </c>
+      <c r="D4">
+        <v>5.964275754032528</v>
+      </c>
+      <c r="E4">
+        <v>8.334337550592423</v>
+      </c>
+      <c r="F4">
+        <v>21.17504492039734</v>
+      </c>
+      <c r="G4">
+        <v>23.25914095298189</v>
+      </c>
+      <c r="H4">
+        <v>9.581282314714077</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>6.047271749975863</v>
+      </c>
+      <c r="K4">
+        <v>18.46900850179582</v>
+      </c>
+      <c r="L4">
+        <v>5.546055457233857</v>
+      </c>
+      <c r="M4">
+        <v>14.8154320005087</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>15.56262724147845</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>9.103944632747716</v>
+      </c>
+      <c r="D5">
+        <v>5.915247253198251</v>
+      </c>
+      <c r="E5">
+        <v>8.331160274820503</v>
+      </c>
+      <c r="F5">
+        <v>21.20511054661936</v>
+      </c>
+      <c r="G5">
+        <v>23.31386012042607</v>
+      </c>
+      <c r="H5">
+        <v>9.621092295383404</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6.06580019580785</v>
+      </c>
+      <c r="K5">
+        <v>18.10481813623182</v>
+      </c>
+      <c r="L5">
+        <v>5.556679655351457</v>
+      </c>
+      <c r="M5">
+        <v>14.5838430176819</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>15.6235552945837</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>9.092558195727065</v>
+      </c>
+      <c r="D6">
+        <v>5.907093276530491</v>
+      </c>
+      <c r="E6">
+        <v>8.330692369841158</v>
+      </c>
+      <c r="F6">
+        <v>21.2104383301642</v>
+      </c>
+      <c r="G6">
+        <v>23.32347050584069</v>
+      </c>
+      <c r="H6">
+        <v>9.627799098002072</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6.068903428729762</v>
+      </c>
+      <c r="K6">
+        <v>18.04361936421371</v>
+      </c>
+      <c r="L6">
+        <v>5.558460095333213</v>
+      </c>
+      <c r="M6">
+        <v>14.54505463883376</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>15.63389862120818</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>9.171782994477921</v>
+      </c>
+      <c r="D7">
+        <v>5.963615443601168</v>
+      </c>
+      <c r="E7">
+        <v>8.334290687975466</v>
+      </c>
+      <c r="F7">
+        <v>21.17542774473418</v>
+      </c>
+      <c r="G7">
+        <v>23.25984343218484</v>
+      </c>
+      <c r="H7">
+        <v>9.581812709265092</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6.047519848504111</v>
+      </c>
+      <c r="K7">
+        <v>18.46414552209641</v>
+      </c>
+      <c r="L7">
+        <v>5.546197647124509</v>
+      </c>
+      <c r="M7">
+        <v>14.81233119282505</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>15.56343364838509</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>9.52542668180253</v>
+      </c>
+      <c r="D8">
+        <v>6.210697255110671</v>
+      </c>
+      <c r="E8">
+        <v>8.358971189907068</v>
+      </c>
+      <c r="F8">
+        <v>21.07148824328767</v>
+      </c>
+      <c r="G8">
+        <v>23.05891460145456</v>
+      </c>
+      <c r="H8">
+        <v>9.393291815641035</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5.95701938147851</v>
+      </c>
+      <c r="K8">
+        <v>20.21446728899508</v>
+      </c>
+      <c r="L8">
+        <v>5.49444484295211</v>
+      </c>
+      <c r="M8">
+        <v>15.94189218493827</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>15.28673013893284</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>10.22739723408342</v>
+      </c>
+      <c r="D9">
+        <v>6.682722387993141</v>
+      </c>
+      <c r="E9">
+        <v>8.440171385275477</v>
+      </c>
+      <c r="F9">
+        <v>21.06658103648581</v>
+      </c>
+      <c r="G9">
+        <v>22.9866111405214</v>
+      </c>
+      <c r="H9">
+        <v>9.079638410116091</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5.793383540936969</v>
+      </c>
+      <c r="K9">
+        <v>23.26967888410081</v>
+      </c>
+      <c r="L9">
+        <v>5.401330996304646</v>
+      </c>
+      <c r="M9">
+        <v>17.9671187561049</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>14.88122831035007</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>10.74342669057771</v>
+      </c>
+      <c r="D10">
+        <v>7.018736100650607</v>
+      </c>
+      <c r="E10">
+        <v>8.520837848836292</v>
+      </c>
+      <c r="F10">
+        <v>21.19968676611246</v>
+      </c>
+      <c r="G10">
+        <v>23.16039042850719</v>
+      </c>
+      <c r="H10">
+        <v>8.88788382312508</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5.681578212591311</v>
+      </c>
+      <c r="K10">
+        <v>25.28688127348761</v>
+      </c>
+      <c r="L10">
+        <v>5.337924809260781</v>
+      </c>
+      <c r="M10">
+        <v>19.33289633947639</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>14.68105978301356</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>10.97735883475297</v>
+      </c>
+      <c r="D11">
+        <v>7.16870025896675</v>
+      </c>
+      <c r="E11">
+        <v>8.562299965337802</v>
+      </c>
+      <c r="F11">
+        <v>21.29309666270307</v>
+      </c>
+      <c r="G11">
+        <v>23.2948367701514</v>
+      </c>
+      <c r="H11">
+        <v>8.810183614004202</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5.632547207134642</v>
+      </c>
+      <c r="K11">
+        <v>26.15585944094043</v>
+      </c>
+      <c r="L11">
+        <v>5.310144761242681</v>
+      </c>
+      <c r="M11">
+        <v>19.92686713529375</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.61454481024913</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>11.06576296206063</v>
+      </c>
+      <c r="D12">
+        <v>7.225033288897112</v>
+      </c>
+      <c r="E12">
+        <v>8.578701601523697</v>
+      </c>
+      <c r="F12">
+        <v>21.33344090756044</v>
+      </c>
+      <c r="G12">
+        <v>23.3541700743961</v>
+      </c>
+      <c r="H12">
+        <v>8.782236888858179</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5.6142447691188</v>
+      </c>
+      <c r="K12">
+        <v>26.47798506644907</v>
+      </c>
+      <c r="L12">
+        <v>5.299776458613552</v>
+      </c>
+      <c r="M12">
+        <v>20.14781583530024</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>14.59317750366495</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>11.04673252414737</v>
+      </c>
+      <c r="D13">
+        <v>7.212921776509189</v>
+      </c>
+      <c r="E13">
+        <v>8.575137805317985</v>
+      </c>
+      <c r="F13">
+        <v>21.3245271175295</v>
+      </c>
+      <c r="G13">
+        <v>23.34101022825461</v>
+      </c>
+      <c r="H13">
+        <v>8.788188244750819</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>5.618174732289954</v>
+      </c>
+      <c r="K13">
+        <v>26.40891709507179</v>
+      </c>
+      <c r="L13">
+        <v>5.302002749535197</v>
+      </c>
+      <c r="M13">
+        <v>20.10040791385468</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>14.59760466332285</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>10.98463585694769</v>
+      </c>
+      <c r="D14">
+        <v>7.173344139846362</v>
+      </c>
+      <c r="E14">
+        <v>8.563635205410126</v>
+      </c>
+      <c r="F14">
+        <v>21.29631479015561</v>
+      </c>
+      <c r="G14">
+        <v>23.2995469161718</v>
+      </c>
+      <c r="H14">
+        <v>8.807854182172422</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5.631036142568165</v>
+      </c>
+      <c r="K14">
+        <v>26.18249958931216</v>
+      </c>
+      <c r="L14">
+        <v>5.309288729458504</v>
+      </c>
+      <c r="M14">
+        <v>19.94512458389386</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.61270863318307</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>10.94657454407393</v>
+      </c>
+      <c r="D15">
+        <v>7.149041342360853</v>
+      </c>
+      <c r="E15">
+        <v>8.556681249548264</v>
+      </c>
+      <c r="F15">
+        <v>21.27968854816167</v>
+      </c>
+      <c r="G15">
+        <v>23.27525897867243</v>
+      </c>
+      <c r="H15">
+        <v>8.820095761727387</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5.638948630641198</v>
+      </c>
+      <c r="K15">
+        <v>26.04291071129633</v>
+      </c>
+      <c r="L15">
+        <v>5.313771272653672</v>
+      </c>
+      <c r="M15">
+        <v>19.84949033013358</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.62246662492057</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>10.72811665209508</v>
+      </c>
+      <c r="D16">
+        <v>7.008873926379315</v>
+      </c>
+      <c r="E16">
+        <v>8.518225444989259</v>
+      </c>
+      <c r="F16">
+        <v>21.19426477909289</v>
+      </c>
+      <c r="G16">
+        <v>23.15275859628257</v>
+      </c>
+      <c r="H16">
+        <v>8.893162344162839</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5.684819432421208</v>
+      </c>
+      <c r="K16">
+        <v>25.22911733895313</v>
+      </c>
+      <c r="L16">
+        <v>5.339761572062952</v>
+      </c>
+      <c r="M16">
+        <v>19.29352475164941</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>14.68592519083118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>10.59384341793884</v>
+      </c>
+      <c r="D17">
+        <v>6.922115623146226</v>
+      </c>
+      <c r="E17">
+        <v>8.495865997518969</v>
+      </c>
+      <c r="F17">
+        <v>21.1504552577659</v>
+      </c>
+      <c r="G17">
+        <v>23.09213314183716</v>
+      </c>
+      <c r="H17">
+        <v>8.940499735699589</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5.713429169350674</v>
+      </c>
+      <c r="K17">
+        <v>24.71745956016848</v>
+      </c>
+      <c r="L17">
+        <v>5.355977114656707</v>
+      </c>
+      <c r="M17">
+        <v>18.94542043965323</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>14.73134447874699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>10.51653984769039</v>
+      </c>
+      <c r="D18">
+        <v>6.871944514476644</v>
+      </c>
+      <c r="E18">
+        <v>8.483453197278415</v>
+      </c>
+      <c r="F18">
+        <v>21.1283359556328</v>
+      </c>
+      <c r="G18">
+        <v>23.06245191583873</v>
+      </c>
+      <c r="H18">
+        <v>8.968617013876745</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5.730056845479434</v>
+      </c>
+      <c r="K18">
+        <v>24.41858375796637</v>
+      </c>
+      <c r="L18">
+        <v>5.365404084283363</v>
+      </c>
+      <c r="M18">
+        <v>18.74262926818077</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>14.75976032385466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>10.49035571767089</v>
+      </c>
+      <c r="D19">
+        <v>6.854912357216865</v>
+      </c>
+      <c r="E19">
+        <v>8.479326862621422</v>
+      </c>
+      <c r="F19">
+        <v>21.12136782013799</v>
+      </c>
+      <c r="G19">
+        <v>23.0532790168156</v>
+      </c>
+      <c r="H19">
+        <v>8.978286829756069</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5.735716217400784</v>
+      </c>
+      <c r="K19">
+        <v>24.31660056331443</v>
+      </c>
+      <c r="L19">
+        <v>5.368613154566894</v>
+      </c>
+      <c r="M19">
+        <v>18.67352780401116</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>14.76976638694944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>10.60814509651409</v>
+      </c>
+      <c r="D20">
+        <v>6.931379443414118</v>
+      </c>
+      <c r="E20">
+        <v>8.498199744048945</v>
+      </c>
+      <c r="F20">
+        <v>21.15479839082638</v>
+      </c>
+      <c r="G20">
+        <v>23.09804635784368</v>
+      </c>
+      <c r="H20">
+        <v>8.935367732529739</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5.710365792626455</v>
+      </c>
+      <c r="K20">
+        <v>24.77240039605515</v>
+      </c>
+      <c r="L20">
+        <v>5.354240581593463</v>
+      </c>
+      <c r="M20">
+        <v>18.98274318832964</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>14.72627024451268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>11.00288053021964</v>
+      </c>
+      <c r="D21">
+        <v>7.184981691309482</v>
+      </c>
+      <c r="E21">
+        <v>8.566994656844001</v>
+      </c>
+      <c r="F21">
+        <v>21.30446458771705</v>
+      </c>
+      <c r="G21">
+        <v>23.31149371494486</v>
+      </c>
+      <c r="H21">
+        <v>8.802036848114172</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>5.627251240867803</v>
+      </c>
+      <c r="K21">
+        <v>26.24919168193372</v>
+      </c>
+      <c r="L21">
+        <v>5.30714456410293</v>
+      </c>
+      <c r="M21">
+        <v>19.99084322191498</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.60816616812902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>11.25978506853959</v>
+      </c>
+      <c r="D22">
+        <v>7.34805802813348</v>
+      </c>
+      <c r="E22">
+        <v>8.61604796226119</v>
+      </c>
+      <c r="F22">
+        <v>21.4313664392435</v>
+      </c>
+      <c r="G22">
+        <v>23.50026107846801</v>
+      </c>
+      <c r="H22">
+        <v>8.723560883405385</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>5.574474111353818</v>
+      </c>
+      <c r="K22">
+        <v>27.17395419397021</v>
+      </c>
+      <c r="L22">
+        <v>5.277246336041408</v>
+      </c>
+      <c r="M22">
+        <v>20.6265154070174</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>14.55338957776512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>11.12278780206755</v>
+      </c>
+      <c r="D23">
+        <v>7.261276828176038</v>
+      </c>
+      <c r="E23">
+        <v>8.58948790242415</v>
+      </c>
+      <c r="F23">
+        <v>21.36089663928467</v>
+      </c>
+      <c r="G23">
+        <v>23.39486483869858</v>
+      </c>
+      <c r="H23">
+        <v>8.764614597338642</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>5.602500445625338</v>
+      </c>
+      <c r="K23">
+        <v>26.68406716764578</v>
+      </c>
+      <c r="L23">
+        <v>5.293123420667603</v>
+      </c>
+      <c r="M23">
+        <v>20.28937672100548</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>14.58047522018798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>10.60167963936721</v>
+      </c>
+      <c r="D24">
+        <v>6.927192178605878</v>
+      </c>
+      <c r="E24">
+        <v>8.497143281856872</v>
+      </c>
+      <c r="F24">
+        <v>21.15282532502832</v>
+      </c>
+      <c r="G24">
+        <v>23.09535691476412</v>
+      </c>
+      <c r="H24">
+        <v>8.937685108368299</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5.711750186062197</v>
+      </c>
+      <c r="K24">
+        <v>24.74757634076054</v>
+      </c>
+      <c r="L24">
+        <v>5.355025342771091</v>
+      </c>
+      <c r="M24">
+        <v>18.96587785958279</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>14.72855715226032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>10.0371170961664</v>
+      </c>
+      <c r="D25">
+        <v>6.556713225219335</v>
+      </c>
+      <c r="E25">
+        <v>8.414585622482115</v>
+      </c>
+      <c r="F25">
+        <v>21.04499853546609</v>
+      </c>
+      <c r="G25">
+        <v>22.96848700611202</v>
+      </c>
+      <c r="H25">
+        <v>9.158051435827032</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>5.83617319788534</v>
+      </c>
+      <c r="K25">
+        <v>22.48331836640971</v>
+      </c>
+      <c r="L25">
+        <v>5.425634656811181</v>
+      </c>
+      <c r="M25">
+        <v>17.44033510758808</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>14.97483858803037</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.622015671733521</v>
+        <v>13.46628438110641</v>
       </c>
       <c r="D2">
-        <v>6.276928128577347</v>
+        <v>9.071548159512837</v>
       </c>
       <c r="E2">
-        <v>8.367838909015642</v>
+        <v>14.18880604075213</v>
       </c>
       <c r="F2">
-        <v>21.05620361373649</v>
+        <v>34.99454784501328</v>
       </c>
       <c r="G2">
-        <v>23.02506934621791</v>
+        <v>37.62470869637943</v>
       </c>
       <c r="H2">
-        <v>9.345852211664042</v>
+        <v>16.67422024450506</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.933435923605177</v>
+        <v>10.63970615628701</v>
       </c>
       <c r="K2">
-        <v>20.66312112182858</v>
+        <v>15.76039444621195</v>
       </c>
       <c r="L2">
-        <v>5.480992784393846</v>
+        <v>9.756038640054662</v>
       </c>
       <c r="M2">
-        <v>16.23540544382398</v>
+        <v>18.43099064586145</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.22054191352654</v>
+        <v>26.52540931578303</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.342666294220708</v>
+        <v>13.45300446102775</v>
       </c>
       <c r="D3">
-        <v>6.083985064854381</v>
+        <v>9.049227845633121</v>
       </c>
       <c r="E3">
-        <v>8.344581140721667</v>
+        <v>14.21733002514112</v>
       </c>
       <c r="F3">
-        <v>21.11520187138739</v>
+        <v>35.15162831205756</v>
       </c>
       <c r="G3">
-        <v>23.14678773568875</v>
+        <v>37.85303048725027</v>
       </c>
       <c r="H3">
-        <v>9.48757386806343</v>
+        <v>16.74862410732115</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.00288374596452</v>
+        <v>10.66867351873471</v>
       </c>
       <c r="K3">
-        <v>19.3332479753962</v>
+        <v>15.23686830112957</v>
       </c>
       <c r="L3">
-        <v>5.520644770975551</v>
+        <v>9.773625342960077</v>
       </c>
       <c r="M3">
-        <v>15.36994167188241</v>
+        <v>18.22158603789687</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.42253552647665</v>
+        <v>26.66434367173343</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.172712533339961</v>
+        <v>13.4475303277871</v>
       </c>
       <c r="D4">
-        <v>5.964275754032528</v>
+        <v>9.036519112148378</v>
       </c>
       <c r="E4">
-        <v>8.334337550592423</v>
+        <v>14.23672885954186</v>
       </c>
       <c r="F4">
-        <v>21.17504492039734</v>
+        <v>35.25653683882179</v>
       </c>
       <c r="G4">
-        <v>23.25914095298189</v>
+        <v>38.00509060651048</v>
       </c>
       <c r="H4">
-        <v>9.581282314714077</v>
+        <v>16.79721048790941</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.047271749975863</v>
+        <v>10.68746015419034</v>
       </c>
       <c r="K4">
-        <v>18.46900850179582</v>
+        <v>14.90603542088003</v>
       </c>
       <c r="L4">
-        <v>5.546055457233857</v>
+        <v>9.785049994002797</v>
       </c>
       <c r="M4">
-        <v>14.8154320005087</v>
+        <v>18.09302545641983</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.56262724147845</v>
+        <v>26.75562000332408</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.103944632747716</v>
+        <v>13.44597604458243</v>
       </c>
       <c r="D5">
-        <v>5.915247253198251</v>
+        <v>9.031593890861425</v>
       </c>
       <c r="E5">
-        <v>8.331160274820503</v>
+        <v>14.24510835416974</v>
       </c>
       <c r="F5">
-        <v>21.20511054661936</v>
+        <v>35.30141068026172</v>
       </c>
       <c r="G5">
-        <v>23.31386012042607</v>
+        <v>38.07002928406212</v>
       </c>
       <c r="H5">
-        <v>9.621092295383404</v>
+        <v>16.81774000851946</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.06580019580785</v>
+        <v>10.69536807009267</v>
       </c>
       <c r="K5">
-        <v>18.10481813623182</v>
+        <v>14.76903356329109</v>
       </c>
       <c r="L5">
-        <v>5.556679655351457</v>
+        <v>9.789863556348505</v>
       </c>
       <c r="M5">
-        <v>14.5838430176819</v>
+        <v>18.04068524552943</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.6235552945837</v>
+        <v>26.79431558957212</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.092558195727065</v>
+        <v>13.44575888200023</v>
       </c>
       <c r="D6">
-        <v>5.907093276530491</v>
+        <v>9.030791474926106</v>
       </c>
       <c r="E6">
-        <v>8.330692369841158</v>
+        <v>14.24652841893045</v>
       </c>
       <c r="F6">
-        <v>21.2104383301642</v>
+        <v>35.30899001937907</v>
       </c>
       <c r="G6">
-        <v>23.32347050584069</v>
+        <v>38.0809915175923</v>
       </c>
       <c r="H6">
-        <v>9.627799098002072</v>
+        <v>16.82119303335986</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.068903428729762</v>
+        <v>10.69669642434114</v>
       </c>
       <c r="K6">
-        <v>18.04361936421371</v>
+        <v>14.74615800060036</v>
       </c>
       <c r="L6">
-        <v>5.558460095333213</v>
+        <v>9.790672395457905</v>
       </c>
       <c r="M6">
-        <v>14.54505463883376</v>
+        <v>18.03199850001038</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.63389862120818</v>
+        <v>26.80083150062696</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.171782994477921</v>
+        <v>13.44750662404189</v>
       </c>
       <c r="D7">
-        <v>5.963615443601168</v>
+        <v>9.036451657561345</v>
       </c>
       <c r="E7">
-        <v>8.334290687975466</v>
+        <v>14.23683994746175</v>
       </c>
       <c r="F7">
-        <v>21.17542774473418</v>
+        <v>35.25713343439151</v>
       </c>
       <c r="G7">
-        <v>23.25984343218484</v>
+        <v>38.00595437042987</v>
       </c>
       <c r="H7">
-        <v>9.581812709265092</v>
+        <v>16.79748439918662</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.047519848504111</v>
+        <v>10.6875657811113</v>
       </c>
       <c r="K7">
-        <v>18.46414552209641</v>
+        <v>14.90419636825009</v>
       </c>
       <c r="L7">
-        <v>5.546197647124509</v>
+        <v>9.785114271393033</v>
       </c>
       <c r="M7">
-        <v>14.81233119282505</v>
+        <v>18.09231931837759</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.56343364838509</v>
+        <v>26.75613579507586</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.52542668180253</v>
+        <v>13.46115097087259</v>
       </c>
       <c r="D8">
-        <v>6.210697255110671</v>
+        <v>9.063647376504173</v>
       </c>
       <c r="E8">
-        <v>8.358971189907068</v>
+        <v>14.19825007653617</v>
       </c>
       <c r="F8">
-        <v>21.07148824328767</v>
+        <v>35.04695041109242</v>
       </c>
       <c r="G8">
-        <v>23.05891460145456</v>
+        <v>37.70096342839715</v>
       </c>
       <c r="H8">
-        <v>9.393291815641035</v>
+        <v>16.69927261290589</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.95701938147851</v>
+        <v>10.64948680542218</v>
       </c>
       <c r="K8">
-        <v>20.21446728899508</v>
+        <v>15.58193077206089</v>
       </c>
       <c r="L8">
-        <v>5.49444484295211</v>
+        <v>9.761972793428757</v>
       </c>
       <c r="M8">
-        <v>15.94189218493827</v>
+        <v>18.35881221916103</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.28673013893284</v>
+        <v>26.57207389121162</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.22739723408342</v>
+        <v>13.50903766250231</v>
       </c>
       <c r="D9">
-        <v>6.682722387993141</v>
+        <v>9.124732994581537</v>
       </c>
       <c r="E9">
-        <v>8.440171385275477</v>
+        <v>14.13751770170549</v>
       </c>
       <c r="F9">
-        <v>21.06658103648581</v>
+        <v>34.70212007193291</v>
       </c>
       <c r="G9">
-        <v>22.9866111405214</v>
+        <v>37.19758412673317</v>
       </c>
       <c r="H9">
-        <v>9.079638410116091</v>
+        <v>16.52968744353594</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.793383540936969</v>
+        <v>10.58272512207215</v>
       </c>
       <c r="K9">
-        <v>23.26967888410081</v>
+        <v>16.82961510129329</v>
       </c>
       <c r="L9">
-        <v>5.401330996304646</v>
+        <v>9.721542884690836</v>
       </c>
       <c r="M9">
-        <v>17.9671187561049</v>
+        <v>18.87952650833104</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.88122831035007</v>
+        <v>26.25856589438926</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.74342669057771</v>
+        <v>13.55689749790904</v>
       </c>
       <c r="D10">
-        <v>7.018736100650607</v>
+        <v>9.174132839401754</v>
       </c>
       <c r="E10">
-        <v>8.520837848836292</v>
+        <v>14.10198680205436</v>
       </c>
       <c r="F10">
-        <v>21.19968676611246</v>
+        <v>34.49010538811007</v>
       </c>
       <c r="G10">
-        <v>23.16039042850719</v>
+        <v>36.88620941375243</v>
       </c>
       <c r="H10">
-        <v>8.88788382312508</v>
+        <v>16.41909274417965</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.681578212591311</v>
+        <v>10.53845902923895</v>
       </c>
       <c r="K10">
-        <v>25.28688127348761</v>
+        <v>17.68858955625462</v>
       </c>
       <c r="L10">
-        <v>5.337924809260781</v>
+        <v>9.69483007005649</v>
       </c>
       <c r="M10">
-        <v>19.33289633947639</v>
+        <v>19.25830661984395</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.68105978301356</v>
+        <v>26.05724315261213</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.97735883475297</v>
+        <v>13.58137033788832</v>
       </c>
       <c r="D11">
-        <v>7.16870025896675</v>
+        <v>9.197540201552734</v>
       </c>
       <c r="E11">
-        <v>8.562299965337802</v>
+        <v>14.0877917534724</v>
       </c>
       <c r="F11">
-        <v>21.29309666270307</v>
+        <v>34.40268871821092</v>
       </c>
       <c r="G11">
-        <v>23.2948367701514</v>
+        <v>36.75740641697566</v>
       </c>
       <c r="H11">
-        <v>8.810183614004202</v>
+        <v>16.37181511458727</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.632547207134642</v>
+        <v>10.51935170247666</v>
       </c>
       <c r="K11">
-        <v>26.15585944094043</v>
+        <v>18.06541330235375</v>
       </c>
       <c r="L11">
-        <v>5.310144761242681</v>
+        <v>9.683321492629698</v>
       </c>
       <c r="M11">
-        <v>19.92686713529375</v>
+        <v>19.42925167729902</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.61454481024913</v>
+        <v>25.97197724282431</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.06576296206063</v>
+        <v>13.59102079720131</v>
       </c>
       <c r="D12">
-        <v>7.225033288897112</v>
+        <v>9.206534143731531</v>
       </c>
       <c r="E12">
-        <v>8.578701601523697</v>
+        <v>14.0826990338667</v>
       </c>
       <c r="F12">
-        <v>21.33344090756044</v>
+        <v>34.37088969940159</v>
       </c>
       <c r="G12">
-        <v>23.3541700743961</v>
+        <v>36.71049192845204</v>
       </c>
       <c r="H12">
-        <v>8.782236888858179</v>
+        <v>16.35434811825755</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.6142447691188</v>
+        <v>10.51226368569474</v>
       </c>
       <c r="K12">
-        <v>26.47798506644907</v>
+        <v>18.20600367164208</v>
       </c>
       <c r="L12">
-        <v>5.299776458613552</v>
+        <v>9.679055555597742</v>
       </c>
       <c r="M12">
-        <v>20.14781583530024</v>
+        <v>19.49374312510381</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.59317750366495</v>
+        <v>25.94059967869844</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.04673252414737</v>
+        <v>13.58892544743433</v>
       </c>
       <c r="D13">
-        <v>7.212921776509189</v>
+        <v>9.204591423292662</v>
       </c>
       <c r="E13">
-        <v>8.575137805317985</v>
+        <v>14.08378327816587</v>
       </c>
       <c r="F13">
-        <v>21.3245271175295</v>
+        <v>34.37768011779377</v>
       </c>
       <c r="G13">
-        <v>23.34101022825461</v>
+        <v>36.72051284394611</v>
       </c>
       <c r="H13">
-        <v>8.788188244750819</v>
+        <v>16.3580905569139</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.618174732289954</v>
+        <v>10.51378366466808</v>
       </c>
       <c r="K13">
-        <v>26.40891709507179</v>
+        <v>18.17582011304624</v>
       </c>
       <c r="L13">
-        <v>5.302002749535197</v>
+        <v>9.679970210831842</v>
       </c>
       <c r="M13">
-        <v>20.10040791385468</v>
+        <v>19.47986520284342</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.59760466332285</v>
+        <v>25.94731685153782</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.98463585694769</v>
+        <v>13.5821566404477</v>
       </c>
       <c r="D14">
-        <v>7.173344139846362</v>
+        <v>9.198277557183909</v>
       </c>
       <c r="E14">
-        <v>8.563635205410126</v>
+        <v>14.08736711017883</v>
       </c>
       <c r="F14">
-        <v>21.29631479015561</v>
+        <v>34.40004643412847</v>
       </c>
       <c r="G14">
-        <v>23.2995469161718</v>
+        <v>36.7535093703952</v>
       </c>
       <c r="H14">
-        <v>8.807854182172422</v>
+        <v>16.37036935603133</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.631036142568165</v>
+        <v>10.51876561371944</v>
       </c>
       <c r="K14">
-        <v>26.18249958931216</v>
+        <v>18.07702247528467</v>
       </c>
       <c r="L14">
-        <v>5.309288729458504</v>
+        <v>9.682968687548565</v>
       </c>
       <c r="M14">
-        <v>19.94512458389386</v>
+        <v>19.4345625293336</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.61270863318307</v>
+        <v>25.9693775240257</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.94657454407393</v>
+        <v>13.57806028042514</v>
       </c>
       <c r="D15">
-        <v>7.149041342360853</v>
+        <v>9.194426939771985</v>
       </c>
       <c r="E15">
-        <v>8.556681249548264</v>
+        <v>14.08959910668612</v>
       </c>
       <c r="F15">
-        <v>21.27968854816167</v>
+        <v>34.4139163946774</v>
       </c>
       <c r="G15">
-        <v>23.27525897867243</v>
+        <v>36.77396338003156</v>
       </c>
       <c r="H15">
-        <v>8.820095761727387</v>
+        <v>16.37794725634128</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.638948630641198</v>
+        <v>10.52183639621118</v>
       </c>
       <c r="K15">
-        <v>26.04291071129633</v>
+        <v>18.01622917791521</v>
       </c>
       <c r="L15">
-        <v>5.313771272653672</v>
+        <v>9.684817325465929</v>
       </c>
       <c r="M15">
-        <v>19.84949033013358</v>
+        <v>19.40678051893936</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.62246662492057</v>
+        <v>25.98300900762385</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.72811665209508</v>
+        <v>13.55535205157967</v>
       </c>
       <c r="D16">
-        <v>7.008873926379315</v>
+        <v>9.172621558551059</v>
       </c>
       <c r="E16">
-        <v>8.518225444989259</v>
+        <v>14.10295405419919</v>
       </c>
       <c r="F16">
-        <v>21.19426477909289</v>
+        <v>34.49600043132544</v>
       </c>
       <c r="G16">
-        <v>23.15275859628257</v>
+        <v>36.89488658873182</v>
       </c>
       <c r="H16">
-        <v>8.893162344162839</v>
+        <v>16.42224346439231</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.684819432421208</v>
+        <v>10.53972840921552</v>
       </c>
       <c r="K16">
-        <v>25.22911733895313</v>
+        <v>17.66367398628065</v>
       </c>
       <c r="L16">
-        <v>5.339761572062952</v>
+        <v>9.695595093054875</v>
       </c>
       <c r="M16">
-        <v>19.29352475164941</v>
+        <v>19.24710358829509</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.68592519083118</v>
+        <v>26.06294279723372</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.59384341793884</v>
+        <v>13.54210948984847</v>
       </c>
       <c r="D17">
-        <v>6.922115623146226</v>
+        <v>9.159481095535957</v>
       </c>
       <c r="E17">
-        <v>8.495865997518969</v>
+        <v>14.11165070996157</v>
       </c>
       <c r="F17">
-        <v>21.1504552577659</v>
+        <v>34.54867288542741</v>
       </c>
       <c r="G17">
-        <v>23.09213314183716</v>
+        <v>36.97236812711339</v>
       </c>
       <c r="H17">
-        <v>8.940499735699589</v>
+        <v>16.4501943934075</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.713429169350674</v>
+        <v>10.55096788809237</v>
       </c>
       <c r="K17">
-        <v>24.71745956016848</v>
+        <v>17.44374908953854</v>
       </c>
       <c r="L17">
-        <v>5.355977114656707</v>
+        <v>9.702371374358226</v>
       </c>
       <c r="M17">
-        <v>18.94542043965323</v>
+        <v>19.14876482734026</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.73134447874699</v>
+        <v>26.11359918449931</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.51653984769039</v>
+        <v>13.53474730962351</v>
       </c>
       <c r="D18">
-        <v>6.871944514476644</v>
+        <v>9.152011339117552</v>
       </c>
       <c r="E18">
-        <v>8.483453197278415</v>
+        <v>14.11683807128764</v>
       </c>
       <c r="F18">
-        <v>21.1283359556328</v>
+        <v>34.57981831026071</v>
       </c>
       <c r="G18">
-        <v>23.06245191583873</v>
+        <v>37.01814148038617</v>
       </c>
       <c r="H18">
-        <v>8.968617013876745</v>
+        <v>16.4665564581242</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.730056845479434</v>
+        <v>10.55752947580895</v>
       </c>
       <c r="K18">
-        <v>24.41858375796637</v>
+        <v>17.31594838756062</v>
       </c>
       <c r="L18">
-        <v>5.365404084283363</v>
+        <v>9.706329477293664</v>
       </c>
       <c r="M18">
-        <v>18.74262926818077</v>
+        <v>19.09207725616294</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.75976032385466</v>
+        <v>26.14332981671899</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.49035571767089</v>
+        <v>13.53229848243877</v>
       </c>
       <c r="D19">
-        <v>6.854912357216865</v>
+        <v>9.149497503215846</v>
       </c>
       <c r="E19">
-        <v>8.479326862621422</v>
+        <v>14.11862625484259</v>
       </c>
       <c r="F19">
-        <v>21.12136782013799</v>
+        <v>34.59050937696967</v>
       </c>
       <c r="G19">
-        <v>23.0532790168156</v>
+        <v>37.03384661544752</v>
       </c>
       <c r="H19">
-        <v>8.978286829756069</v>
+        <v>16.47214539690711</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.735716217400784</v>
+        <v>10.5597677820126</v>
       </c>
       <c r="K19">
-        <v>24.31660056331443</v>
+        <v>17.27245631346591</v>
       </c>
       <c r="L19">
-        <v>5.368613154566894</v>
+        <v>9.707680036765575</v>
       </c>
       <c r="M19">
-        <v>18.67352780401116</v>
+        <v>19.07286363472604</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.76976638694944</v>
+        <v>26.1534981169041</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.60814509651409</v>
+        <v>13.54349287094023</v>
       </c>
       <c r="D20">
-        <v>6.931379443414118</v>
+        <v>9.160870813870858</v>
       </c>
       <c r="E20">
-        <v>8.498199744048945</v>
+        <v>14.11070576348585</v>
       </c>
       <c r="F20">
-        <v>21.15479839082638</v>
+        <v>34.54297784144529</v>
       </c>
       <c r="G20">
-        <v>23.09804635784368</v>
+        <v>36.96399496071494</v>
       </c>
       <c r="H20">
-        <v>8.935367732529739</v>
+        <v>16.447189428838</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.710365792626455</v>
+        <v>10.54976139767337</v>
       </c>
       <c r="K20">
-        <v>24.77240039605515</v>
+        <v>17.46729638371764</v>
       </c>
       <c r="L20">
-        <v>5.354240581593463</v>
+        <v>9.701643762158572</v>
       </c>
       <c r="M20">
-        <v>18.98274318832964</v>
+        <v>19.15924650152863</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.72627024451268</v>
+        <v>26.10814518813892</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.00288053021964</v>
+        <v>13.58413444957027</v>
       </c>
       <c r="D21">
-        <v>7.184981691309482</v>
+        <v>9.200128597989107</v>
       </c>
       <c r="E21">
-        <v>8.566994656844001</v>
+        <v>14.0863067843295</v>
       </c>
       <c r="F21">
-        <v>21.30446458771705</v>
+        <v>34.39344147893259</v>
       </c>
       <c r="G21">
-        <v>23.31149371494486</v>
+        <v>36.74376689122776</v>
       </c>
       <c r="H21">
-        <v>8.802036848114172</v>
+        <v>16.36675094195279</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.627251240867803</v>
+        <v>10.51729829527318</v>
       </c>
       <c r="K21">
-        <v>26.24919168193372</v>
+        <v>18.10609960484394</v>
       </c>
       <c r="L21">
-        <v>5.30714456410293</v>
+        <v>9.682085465402682</v>
       </c>
       <c r="M21">
-        <v>19.99084322191498</v>
+        <v>19.4478759409878</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.60816616812902</v>
+        <v>25.96287303151923</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.25978506853959</v>
+        <v>13.61292646249826</v>
       </c>
       <c r="D22">
-        <v>7.34805802813348</v>
+        <v>9.226541914342127</v>
       </c>
       <c r="E22">
-        <v>8.61604796226119</v>
+        <v>14.07200786795617</v>
       </c>
       <c r="F22">
-        <v>21.4313664392435</v>
+        <v>34.30331262970263</v>
       </c>
       <c r="G22">
-        <v>23.50026107846801</v>
+        <v>36.61068532565086</v>
       </c>
       <c r="H22">
-        <v>8.723560883405385</v>
+        <v>16.31672117699317</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.574474111353818</v>
+        <v>10.49694135798031</v>
       </c>
       <c r="K22">
-        <v>27.17395419397021</v>
+        <v>18.51128844941769</v>
       </c>
       <c r="L22">
-        <v>5.277246336041408</v>
+        <v>9.669839709107555</v>
       </c>
       <c r="M22">
-        <v>20.6265154070174</v>
+        <v>19.63508264648548</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.55338957776512</v>
+        <v>25.87323921737686</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.12278780206755</v>
+        <v>13.59735740338392</v>
       </c>
       <c r="D23">
-        <v>7.261276828176038</v>
+        <v>9.212376934141526</v>
       </c>
       <c r="E23">
-        <v>8.58948790242415</v>
+        <v>14.07948888092068</v>
       </c>
       <c r="F23">
-        <v>21.36089663928467</v>
+        <v>34.35071879890797</v>
       </c>
       <c r="G23">
-        <v>23.39486483869858</v>
+        <v>36.68071617088053</v>
       </c>
       <c r="H23">
-        <v>8.764614597338642</v>
+        <v>16.34319046955143</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.602500445625338</v>
+        <v>10.50772776179291</v>
       </c>
       <c r="K23">
-        <v>26.68406716764578</v>
+        <v>18.29618802552094</v>
       </c>
       <c r="L23">
-        <v>5.293123420667603</v>
+        <v>9.676326515049588</v>
       </c>
       <c r="M23">
-        <v>20.28937672100548</v>
+        <v>19.53531244504606</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.58047522018798</v>
+        <v>25.92059178699168</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.60167963936721</v>
+        <v>13.54286666167358</v>
       </c>
       <c r="D24">
-        <v>6.927192178605878</v>
+        <v>9.160242257529294</v>
       </c>
       <c r="E24">
-        <v>8.497143281856872</v>
+        <v>14.1111323895995</v>
       </c>
       <c r="F24">
-        <v>21.15282532502832</v>
+        <v>34.54554988199591</v>
       </c>
       <c r="G24">
-        <v>23.09535691476412</v>
+        <v>36.96777664452385</v>
       </c>
       <c r="H24">
-        <v>8.937685108368299</v>
+        <v>16.44854706154641</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.711750186062197</v>
+        <v>10.55030654088676</v>
       </c>
       <c r="K24">
-        <v>24.74757634076054</v>
+        <v>17.45665488945918</v>
       </c>
       <c r="L24">
-        <v>5.355025342771091</v>
+        <v>9.701972521456788</v>
       </c>
       <c r="M24">
-        <v>18.96587785958279</v>
+        <v>19.15450820443165</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.72855715226032</v>
+        <v>26.11060904741246</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.0371170961664</v>
+        <v>13.49384018807124</v>
       </c>
       <c r="D25">
-        <v>6.556713225219335</v>
+        <v>9.107398242331136</v>
       </c>
       <c r="E25">
-        <v>8.414585622482115</v>
+        <v>14.15234970322206</v>
       </c>
       <c r="F25">
-        <v>21.04499853546609</v>
+        <v>34.78816760392402</v>
       </c>
       <c r="G25">
-        <v>22.96848700611202</v>
+        <v>37.32354814218614</v>
       </c>
       <c r="H25">
-        <v>9.158051435827032</v>
+        <v>16.5731044539899</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.83617319788534</v>
+        <v>10.59994305570512</v>
       </c>
       <c r="K25">
-        <v>22.48331836640971</v>
+        <v>16.50168830754424</v>
       </c>
       <c r="L25">
-        <v>5.425634656811181</v>
+        <v>9.731953058383189</v>
       </c>
       <c r="M25">
-        <v>17.44033510758808</v>
+        <v>18.73913552017863</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.97483858803037</v>
+        <v>26.33829037251878</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.46628438110641</v>
+        <v>9.622015671733516</v>
       </c>
       <c r="D2">
-        <v>9.071548159512837</v>
+        <v>6.276928128577358</v>
       </c>
       <c r="E2">
-        <v>14.18880604075213</v>
+        <v>8.367838909015594</v>
       </c>
       <c r="F2">
-        <v>34.99454784501328</v>
+        <v>21.05620361373645</v>
       </c>
       <c r="G2">
-        <v>37.62470869637943</v>
+        <v>23.02506934621783</v>
       </c>
       <c r="H2">
-        <v>16.67422024450506</v>
+        <v>9.345852211664042</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.63970615628701</v>
+        <v>5.933435923605082</v>
       </c>
       <c r="K2">
-        <v>15.76039444621195</v>
+        <v>20.66312112182857</v>
       </c>
       <c r="L2">
-        <v>9.756038640054662</v>
+        <v>5.480992784393815</v>
       </c>
       <c r="M2">
-        <v>18.43099064586145</v>
+        <v>16.23540544382397</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.52540931578303</v>
+        <v>15.22054191352648</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.45300446102775</v>
+        <v>9.342666294220651</v>
       </c>
       <c r="D3">
-        <v>9.049227845633121</v>
+        <v>6.083985064854335</v>
       </c>
       <c r="E3">
-        <v>14.21733002514112</v>
+        <v>8.344581140721735</v>
       </c>
       <c r="F3">
-        <v>35.15162831205756</v>
+        <v>21.11520187138753</v>
       </c>
       <c r="G3">
-        <v>37.85303048725027</v>
+        <v>23.14678773568883</v>
       </c>
       <c r="H3">
-        <v>16.74862410732115</v>
+        <v>9.487573868063441</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.66867351873471</v>
+        <v>6.002883745964524</v>
       </c>
       <c r="K3">
-        <v>15.23686830112957</v>
+        <v>19.33324797539616</v>
       </c>
       <c r="L3">
-        <v>9.773625342960077</v>
+        <v>5.52064477097552</v>
       </c>
       <c r="M3">
-        <v>18.22158603789687</v>
+        <v>15.36994167188242</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.66434367173343</v>
+        <v>15.4225355264767</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.4475303277871</v>
+        <v>9.172712533340059</v>
       </c>
       <c r="D4">
-        <v>9.036519112148378</v>
+        <v>5.964275754032487</v>
       </c>
       <c r="E4">
-        <v>14.23672885954186</v>
+        <v>8.334337550592366</v>
       </c>
       <c r="F4">
-        <v>35.25653683882179</v>
+        <v>21.17504492039709</v>
       </c>
       <c r="G4">
-        <v>38.00509060651048</v>
+        <v>23.25914095298151</v>
       </c>
       <c r="H4">
-        <v>16.79721048790941</v>
+        <v>9.581282314714018</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.68746015419034</v>
+        <v>6.047271749975865</v>
       </c>
       <c r="K4">
-        <v>14.90603542088003</v>
+        <v>18.46900850179586</v>
       </c>
       <c r="L4">
-        <v>9.785049994002797</v>
+        <v>5.546055457233826</v>
       </c>
       <c r="M4">
-        <v>18.09302545641983</v>
+        <v>14.81543200050864</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.75562000332408</v>
+        <v>15.56262724147829</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.44597604458243</v>
+        <v>9.103944632747716</v>
       </c>
       <c r="D5">
-        <v>9.031593890861425</v>
+        <v>5.915247253198251</v>
       </c>
       <c r="E5">
-        <v>14.24510835416974</v>
+        <v>8.331160274820498</v>
       </c>
       <c r="F5">
-        <v>35.30141068026172</v>
+        <v>21.20511054661935</v>
       </c>
       <c r="G5">
-        <v>38.07002928406212</v>
+        <v>23.31386012042606</v>
       </c>
       <c r="H5">
-        <v>16.81774000851946</v>
+        <v>9.621092295383402</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.69536807009267</v>
+        <v>6.06580019580785</v>
       </c>
       <c r="K5">
-        <v>14.76903356329109</v>
+        <v>18.10481813623181</v>
       </c>
       <c r="L5">
-        <v>9.789863556348505</v>
+        <v>5.556679655351457</v>
       </c>
       <c r="M5">
-        <v>18.04068524552943</v>
+        <v>14.58384301768189</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.79431558957212</v>
+        <v>15.62355529458369</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.44575888200023</v>
+        <v>9.092558195727092</v>
       </c>
       <c r="D6">
-        <v>9.030791474926106</v>
+        <v>5.907093276530507</v>
       </c>
       <c r="E6">
-        <v>14.24652841893045</v>
+        <v>8.330692369841159</v>
       </c>
       <c r="F6">
-        <v>35.30899001937907</v>
+        <v>21.21043833016441</v>
       </c>
       <c r="G6">
-        <v>38.0809915175923</v>
+        <v>23.32347050584088</v>
       </c>
       <c r="H6">
-        <v>16.82119303335986</v>
+        <v>9.627799098002138</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.69669642434114</v>
+        <v>6.068903428729766</v>
       </c>
       <c r="K6">
-        <v>14.74615800060036</v>
+        <v>18.04361936421369</v>
       </c>
       <c r="L6">
-        <v>9.790672395457905</v>
+        <v>5.558460095333213</v>
       </c>
       <c r="M6">
-        <v>18.03199850001038</v>
+        <v>14.54505463883378</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.80083150062696</v>
+        <v>15.63389862120832</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.44750662404189</v>
+        <v>9.171782994478015</v>
       </c>
       <c r="D7">
-        <v>9.036451657561345</v>
+        <v>5.963615443601166</v>
       </c>
       <c r="E7">
-        <v>14.23683994746175</v>
+        <v>8.334290687975404</v>
       </c>
       <c r="F7">
-        <v>35.25713343439151</v>
+        <v>21.17542774473399</v>
       </c>
       <c r="G7">
-        <v>38.00595437042987</v>
+        <v>23.25984343218473</v>
       </c>
       <c r="H7">
-        <v>16.79748439918662</v>
+        <v>9.581812709265032</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.6875657811113</v>
+        <v>6.047519848504079</v>
       </c>
       <c r="K7">
-        <v>14.90419636825009</v>
+        <v>18.46414552209643</v>
       </c>
       <c r="L7">
-        <v>9.785114271393033</v>
+        <v>5.546197647124441</v>
       </c>
       <c r="M7">
-        <v>18.09231931837759</v>
+        <v>14.81233119282503</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.75613579507586</v>
+        <v>15.56343364838494</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.46115097087259</v>
+        <v>9.525426681802545</v>
       </c>
       <c r="D8">
-        <v>9.063647376504173</v>
+        <v>6.21069725511077</v>
       </c>
       <c r="E8">
-        <v>14.19825007653617</v>
+        <v>8.358971189907077</v>
       </c>
       <c r="F8">
-        <v>35.04695041109242</v>
+        <v>21.07148824328761</v>
       </c>
       <c r="G8">
-        <v>37.70096342839715</v>
+        <v>23.05891460145434</v>
       </c>
       <c r="H8">
-        <v>16.69927261290589</v>
+        <v>9.393291815641028</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.64948680542218</v>
+        <v>5.957019381478448</v>
       </c>
       <c r="K8">
-        <v>15.58193077206089</v>
+        <v>20.2144672889951</v>
       </c>
       <c r="L8">
-        <v>9.761972793428757</v>
+        <v>5.494444842952077</v>
       </c>
       <c r="M8">
-        <v>18.35881221916103</v>
+        <v>15.94189218493825</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.57207389121162</v>
+        <v>15.28673013893275</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.50903766250231</v>
+        <v>10.22739723408341</v>
       </c>
       <c r="D9">
-        <v>9.124732994581537</v>
+        <v>6.682722387993172</v>
       </c>
       <c r="E9">
-        <v>14.13751770170549</v>
+        <v>8.440171385275464</v>
       </c>
       <c r="F9">
-        <v>34.70212007193291</v>
+        <v>21.06658103648567</v>
       </c>
       <c r="G9">
-        <v>37.19758412673317</v>
+        <v>22.98661114052113</v>
       </c>
       <c r="H9">
-        <v>16.52968744353594</v>
+        <v>9.079638410116145</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.58272512207215</v>
+        <v>5.793383540937002</v>
       </c>
       <c r="K9">
-        <v>16.82961510129329</v>
+        <v>23.26967888410083</v>
       </c>
       <c r="L9">
-        <v>9.721542884690836</v>
+        <v>5.401330996304676</v>
       </c>
       <c r="M9">
-        <v>18.87952650833104</v>
+        <v>17.96711875610489</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.25856589438926</v>
+        <v>14.88122831034999</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.55689749790904</v>
+        <v>10.74342669057776</v>
       </c>
       <c r="D10">
-        <v>9.174132839401754</v>
+        <v>7.018736100650622</v>
       </c>
       <c r="E10">
-        <v>14.10198680205436</v>
+        <v>8.520837848836335</v>
       </c>
       <c r="F10">
-        <v>34.49010538811007</v>
+        <v>21.19968676611256</v>
       </c>
       <c r="G10">
-        <v>36.88620941375243</v>
+        <v>23.16039042850733</v>
       </c>
       <c r="H10">
-        <v>16.41909274417965</v>
+        <v>8.887883823125083</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.53845902923895</v>
+        <v>5.681578212591307</v>
       </c>
       <c r="K10">
-        <v>17.68858955625462</v>
+        <v>25.28688127348756</v>
       </c>
       <c r="L10">
-        <v>9.69483007005649</v>
+        <v>5.337924809260846</v>
       </c>
       <c r="M10">
-        <v>19.25830661984395</v>
+        <v>19.3328963394764</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.05724315261213</v>
+        <v>14.68105978301364</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.58137033788832</v>
+        <v>10.97735883475302</v>
       </c>
       <c r="D11">
-        <v>9.197540201552734</v>
+        <v>7.168700258966716</v>
       </c>
       <c r="E11">
-        <v>14.0877917534724</v>
+        <v>8.562299965337813</v>
       </c>
       <c r="F11">
-        <v>34.40268871821092</v>
+        <v>21.29309666270305</v>
       </c>
       <c r="G11">
-        <v>36.75740641697566</v>
+        <v>23.29483677015137</v>
       </c>
       <c r="H11">
-        <v>16.37181511458727</v>
+        <v>8.810183614004206</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.51935170247666</v>
+        <v>5.632547207134704</v>
       </c>
       <c r="K11">
-        <v>18.06541330235375</v>
+        <v>26.15585944094043</v>
       </c>
       <c r="L11">
-        <v>9.683321492629698</v>
+        <v>5.310144761242618</v>
       </c>
       <c r="M11">
-        <v>19.42925167729902</v>
+        <v>19.92686713529375</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.97197724282431</v>
+        <v>14.61454481024913</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.59102079720131</v>
+        <v>11.06576296206066</v>
       </c>
       <c r="D12">
-        <v>9.206534143731531</v>
+        <v>7.225033288897052</v>
       </c>
       <c r="E12">
-        <v>14.0826990338667</v>
+        <v>8.578701601523742</v>
       </c>
       <c r="F12">
-        <v>34.37088969940159</v>
+        <v>21.33344090756039</v>
       </c>
       <c r="G12">
-        <v>36.71049192845204</v>
+        <v>23.35417007439609</v>
       </c>
       <c r="H12">
-        <v>16.35434811825755</v>
+        <v>8.782236888858172</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.51226368569474</v>
+        <v>5.614244769118893</v>
       </c>
       <c r="K12">
-        <v>18.20600367164208</v>
+        <v>26.47798506644909</v>
       </c>
       <c r="L12">
-        <v>9.679055555597742</v>
+        <v>5.299776458613646</v>
       </c>
       <c r="M12">
-        <v>19.49374312510381</v>
+        <v>20.14781583530027</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.94059967869844</v>
+        <v>14.59317750366495</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.58892544743433</v>
+        <v>11.04673252414737</v>
       </c>
       <c r="D13">
-        <v>9.204591423292662</v>
+        <v>7.212921776509175</v>
       </c>
       <c r="E13">
-        <v>14.08378327816587</v>
+        <v>8.575137805317933</v>
       </c>
       <c r="F13">
-        <v>34.37768011779377</v>
+        <v>21.32452711752947</v>
       </c>
       <c r="G13">
-        <v>36.72051284394611</v>
+        <v>23.34101022825462</v>
       </c>
       <c r="H13">
-        <v>16.3580905569139</v>
+        <v>8.788188244750714</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.51378366466808</v>
+        <v>5.61817473228992</v>
       </c>
       <c r="K13">
-        <v>18.17582011304624</v>
+        <v>26.40891709507179</v>
       </c>
       <c r="L13">
-        <v>9.679970210831842</v>
+        <v>5.302002749535166</v>
       </c>
       <c r="M13">
-        <v>19.47986520284342</v>
+        <v>20.10040791385466</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.94731685153782</v>
+        <v>14.59760466332282</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.5821566404477</v>
+        <v>10.98463585694782</v>
       </c>
       <c r="D14">
-        <v>9.198277557183909</v>
+        <v>7.17334413984636</v>
       </c>
       <c r="E14">
-        <v>14.08736711017883</v>
+        <v>8.563635205410177</v>
       </c>
       <c r="F14">
-        <v>34.40004643412847</v>
+        <v>21.29631479015548</v>
       </c>
       <c r="G14">
-        <v>36.7535093703952</v>
+        <v>23.29954691617159</v>
       </c>
       <c r="H14">
-        <v>16.37036935603133</v>
+        <v>8.807854182172369</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.51876561371944</v>
+        <v>5.631036142568195</v>
       </c>
       <c r="K14">
-        <v>18.07702247528467</v>
+        <v>26.18249958931221</v>
       </c>
       <c r="L14">
-        <v>9.682968687548565</v>
+        <v>5.309288729458503</v>
       </c>
       <c r="M14">
-        <v>19.4345625293336</v>
+        <v>19.94512458389385</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.9693775240257</v>
+        <v>14.61270863318295</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.57806028042514</v>
+        <v>10.94657454407396</v>
       </c>
       <c r="D15">
-        <v>9.194426939771985</v>
+        <v>7.149041342360792</v>
       </c>
       <c r="E15">
-        <v>14.08959910668612</v>
+        <v>8.55668124954834</v>
       </c>
       <c r="F15">
-        <v>34.4139163946774</v>
+        <v>21.27968854816173</v>
       </c>
       <c r="G15">
-        <v>36.77396338003156</v>
+        <v>23.27525897867238</v>
       </c>
       <c r="H15">
-        <v>16.37794725634128</v>
+        <v>8.820095761727483</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.52183639621118</v>
+        <v>5.638948630641289</v>
       </c>
       <c r="K15">
-        <v>18.01622917791521</v>
+        <v>26.0429107112963</v>
       </c>
       <c r="L15">
-        <v>9.684817325465929</v>
+        <v>5.313771272653796</v>
       </c>
       <c r="M15">
-        <v>19.40678051893936</v>
+        <v>19.8494903301336</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.98300900762385</v>
+        <v>14.62246662492065</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.55535205157967</v>
+        <v>10.72811665209508</v>
       </c>
       <c r="D16">
-        <v>9.172621558551059</v>
+        <v>7.008873926379391</v>
       </c>
       <c r="E16">
-        <v>14.10295405419919</v>
+        <v>8.518225444989362</v>
       </c>
       <c r="F16">
-        <v>34.49600043132544</v>
+        <v>21.19426477909288</v>
       </c>
       <c r="G16">
-        <v>36.89488658873182</v>
+        <v>23.15275859628233</v>
       </c>
       <c r="H16">
-        <v>16.42224346439231</v>
+        <v>8.893162344162839</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.53972840921552</v>
+        <v>5.68481943242121</v>
       </c>
       <c r="K16">
-        <v>17.66367398628065</v>
+        <v>25.22911733895314</v>
       </c>
       <c r="L16">
-        <v>9.695595093054875</v>
+        <v>5.339761572063082</v>
       </c>
       <c r="M16">
-        <v>19.24710358829509</v>
+        <v>19.29352475164942</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.06294279723372</v>
+        <v>14.68592519083111</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.54210948984847</v>
+        <v>10.59384341793878</v>
       </c>
       <c r="D17">
-        <v>9.159481095535957</v>
+        <v>6.922115623146205</v>
       </c>
       <c r="E17">
-        <v>14.11165070996157</v>
+        <v>8.495865997518985</v>
       </c>
       <c r="F17">
-        <v>34.54867288542741</v>
+        <v>21.15045525776577</v>
       </c>
       <c r="G17">
-        <v>36.97236812711339</v>
+        <v>23.09213314183707</v>
       </c>
       <c r="H17">
-        <v>16.4501943934075</v>
+        <v>8.940499735699529</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.55096788809237</v>
+        <v>5.713429169350677</v>
       </c>
       <c r="K17">
-        <v>17.44374908953854</v>
+        <v>24.7174595601685</v>
       </c>
       <c r="L17">
-        <v>9.702371374358226</v>
+        <v>5.355977114656736</v>
       </c>
       <c r="M17">
-        <v>19.14876482734026</v>
+        <v>18.94542043965323</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.11359918449931</v>
+        <v>14.73134447874686</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.53474730962351</v>
+        <v>10.51653984769033</v>
       </c>
       <c r="D18">
-        <v>9.152011339117552</v>
+        <v>6.871944514476601</v>
       </c>
       <c r="E18">
-        <v>14.11683807128764</v>
+        <v>8.48345319727842</v>
       </c>
       <c r="F18">
-        <v>34.57981831026071</v>
+        <v>21.12833595563287</v>
       </c>
       <c r="G18">
-        <v>37.01814148038617</v>
+        <v>23.06245191583897</v>
       </c>
       <c r="H18">
-        <v>16.4665564581242</v>
+        <v>8.968617013876861</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.55752947580895</v>
+        <v>5.730056845479535</v>
       </c>
       <c r="K18">
-        <v>17.31594838756062</v>
+        <v>24.41858375796634</v>
       </c>
       <c r="L18">
-        <v>9.706329477293664</v>
+        <v>5.365404084283365</v>
       </c>
       <c r="M18">
-        <v>19.09207725616294</v>
+        <v>18.74262926818076</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.14332981671899</v>
+        <v>14.75976032385478</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.53229848243877</v>
+        <v>10.49035571767098</v>
       </c>
       <c r="D19">
-        <v>9.149497503215846</v>
+        <v>6.8549123572168</v>
       </c>
       <c r="E19">
-        <v>14.11862625484259</v>
+        <v>8.479326862621422</v>
       </c>
       <c r="F19">
-        <v>34.59050937696967</v>
+        <v>21.12136782013779</v>
       </c>
       <c r="G19">
-        <v>37.03384661544752</v>
+        <v>23.05327901681547</v>
       </c>
       <c r="H19">
-        <v>16.47214539690711</v>
+        <v>8.978286829756023</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.5597677820126</v>
+        <v>5.735716217400815</v>
       </c>
       <c r="K19">
-        <v>17.27245631346591</v>
+        <v>24.31660056331443</v>
       </c>
       <c r="L19">
-        <v>9.707680036765575</v>
+        <v>5.368613154566891</v>
       </c>
       <c r="M19">
-        <v>19.07286363472604</v>
+        <v>18.67352780401115</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.1534981169041</v>
+        <v>14.76976638694933</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.54349287094023</v>
+        <v>10.60814509651417</v>
       </c>
       <c r="D20">
-        <v>9.160870813870858</v>
+        <v>6.93137944341409</v>
       </c>
       <c r="E20">
-        <v>14.11070576348585</v>
+        <v>8.498199744048945</v>
       </c>
       <c r="F20">
-        <v>34.54297784144529</v>
+        <v>21.15479839082622</v>
       </c>
       <c r="G20">
-        <v>36.96399496071494</v>
+        <v>23.09804635784347</v>
       </c>
       <c r="H20">
-        <v>16.447189428838</v>
+        <v>8.935367732529691</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.54976139767337</v>
+        <v>5.710365792626456</v>
       </c>
       <c r="K20">
-        <v>17.46729638371764</v>
+        <v>24.77240039605523</v>
       </c>
       <c r="L20">
-        <v>9.701643762158572</v>
+        <v>5.354240581593397</v>
       </c>
       <c r="M20">
-        <v>19.15924650152863</v>
+        <v>18.98274318832963</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.10814518813892</v>
+        <v>14.72627024451252</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.58413444957027</v>
+        <v>11.0028805302197</v>
       </c>
       <c r="D21">
-        <v>9.200128597989107</v>
+        <v>7.184981691309432</v>
       </c>
       <c r="E21">
-        <v>14.0863067843295</v>
+        <v>8.566994656844001</v>
       </c>
       <c r="F21">
-        <v>34.39344147893259</v>
+        <v>21.30446458771701</v>
       </c>
       <c r="G21">
-        <v>36.74376689122776</v>
+        <v>23.31149371494486</v>
       </c>
       <c r="H21">
-        <v>16.36675094195279</v>
+        <v>8.802036848114133</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.51729829527318</v>
+        <v>5.627251240867772</v>
       </c>
       <c r="K21">
-        <v>18.10609960484394</v>
+        <v>26.24919168193375</v>
       </c>
       <c r="L21">
-        <v>9.682085465402682</v>
+        <v>5.307144564102863</v>
       </c>
       <c r="M21">
-        <v>19.4478759409878</v>
+        <v>19.99084322191498</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.96287303151923</v>
+        <v>14.60816616812896</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.61292646249826</v>
+        <v>11.2597850685396</v>
       </c>
       <c r="D22">
-        <v>9.226541914342127</v>
+        <v>7.348058028133535</v>
       </c>
       <c r="E22">
-        <v>14.07200786795617</v>
+        <v>8.616047962261238</v>
       </c>
       <c r="F22">
-        <v>34.30331262970263</v>
+        <v>21.43136643924329</v>
       </c>
       <c r="G22">
-        <v>36.61068532565086</v>
+        <v>23.50026107846765</v>
       </c>
       <c r="H22">
-        <v>16.31672117699317</v>
+        <v>8.723560883405327</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.49694135798031</v>
+        <v>5.574474111353823</v>
       </c>
       <c r="K22">
-        <v>18.51128844941769</v>
+        <v>27.17395419397027</v>
       </c>
       <c r="L22">
-        <v>9.669839709107555</v>
+        <v>5.277246336041444</v>
       </c>
       <c r="M22">
-        <v>19.63508264648548</v>
+        <v>20.62651540701741</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.87323921737686</v>
+        <v>14.55338957776487</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.59735740338392</v>
+        <v>11.12278780206751</v>
       </c>
       <c r="D23">
-        <v>9.212376934141526</v>
+        <v>7.261276828175993</v>
       </c>
       <c r="E23">
-        <v>14.07948888092068</v>
+        <v>8.589487902424114</v>
       </c>
       <c r="F23">
-        <v>34.35071879890797</v>
+        <v>21.36089663928469</v>
       </c>
       <c r="G23">
-        <v>36.68071617088053</v>
+        <v>23.39486483869876</v>
       </c>
       <c r="H23">
-        <v>16.34319046955143</v>
+        <v>8.76461459733869</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.50772776179291</v>
+        <v>5.602500445625333</v>
       </c>
       <c r="K23">
-        <v>18.29618802552094</v>
+        <v>26.68406716764575</v>
       </c>
       <c r="L23">
-        <v>9.676326515049588</v>
+        <v>5.293123420667571</v>
       </c>
       <c r="M23">
-        <v>19.53531244504606</v>
+        <v>20.28937672100549</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.92059178699168</v>
+        <v>14.58047522018803</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.54286666167358</v>
+        <v>10.60167963936732</v>
       </c>
       <c r="D24">
-        <v>9.160242257529294</v>
+        <v>6.927192178605979</v>
       </c>
       <c r="E24">
-        <v>14.1111323895995</v>
+        <v>8.497143281856825</v>
       </c>
       <c r="F24">
-        <v>34.54554988199591</v>
+        <v>21.15282532502809</v>
       </c>
       <c r="G24">
-        <v>36.96777664452385</v>
+        <v>23.09535691476378</v>
       </c>
       <c r="H24">
-        <v>16.44854706154641</v>
+        <v>8.937685108368134</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.55030654088676</v>
+        <v>5.711750186062067</v>
       </c>
       <c r="K24">
-        <v>17.45665488945918</v>
+        <v>24.74757634076062</v>
       </c>
       <c r="L24">
-        <v>9.701972521456788</v>
+        <v>5.355025342771027</v>
       </c>
       <c r="M24">
-        <v>19.15450820443165</v>
+        <v>18.96587785958276</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.11060904741246</v>
+        <v>14.72855715226006</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.49384018807124</v>
+        <v>10.0371170961664</v>
       </c>
       <c r="D25">
-        <v>9.107398242331136</v>
+        <v>6.556713225219303</v>
       </c>
       <c r="E25">
-        <v>14.15234970322206</v>
+        <v>8.414585622482116</v>
       </c>
       <c r="F25">
-        <v>34.78816760392402</v>
+        <v>21.04499853546605</v>
       </c>
       <c r="G25">
-        <v>37.32354814218614</v>
+        <v>22.96848700611209</v>
       </c>
       <c r="H25">
-        <v>16.5731044539899</v>
+        <v>9.158051435826975</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.59994305570512</v>
+        <v>5.836173197885405</v>
       </c>
       <c r="K25">
-        <v>16.50168830754424</v>
+        <v>22.4833183664097</v>
       </c>
       <c r="L25">
-        <v>9.731953058383189</v>
+        <v>5.425634656811183</v>
       </c>
       <c r="M25">
-        <v>18.73913552017863</v>
+        <v>17.44033510758808</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.33829037251878</v>
+        <v>14.97483858803037</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.622015671733516</v>
+        <v>7.679654788400785</v>
       </c>
       <c r="D2">
-        <v>6.276928128577358</v>
+        <v>4.161695127941998</v>
       </c>
       <c r="E2">
-        <v>8.367838909015594</v>
+        <v>64.75280030579388</v>
       </c>
       <c r="F2">
-        <v>21.05620361373645</v>
+        <v>13.28236660291342</v>
       </c>
       <c r="G2">
-        <v>23.02506934621783</v>
+        <v>16.18060869690449</v>
       </c>
       <c r="H2">
-        <v>9.345852211664042</v>
+        <v>7.885242769857551</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5.670865519599367</v>
       </c>
       <c r="J2">
-        <v>5.933435923605082</v>
+        <v>5.694079452170758</v>
       </c>
       <c r="K2">
-        <v>20.66312112182857</v>
+        <v>10.39735555517338</v>
       </c>
       <c r="L2">
-        <v>5.480992784393815</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.23540544382397</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.22054191352648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>99.54226411399129</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>9.072891120894955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.342666294220651</v>
+        <v>7.289863897981369</v>
       </c>
       <c r="D3">
-        <v>6.083985064854335</v>
+        <v>3.972668773208296</v>
       </c>
       <c r="E3">
-        <v>8.344581140721735</v>
+        <v>60.59038446199724</v>
       </c>
       <c r="F3">
-        <v>21.11520187138753</v>
+        <v>12.57479408360122</v>
       </c>
       <c r="G3">
-        <v>23.14678773568883</v>
+        <v>14.71844466722461</v>
       </c>
       <c r="H3">
-        <v>9.487573868063441</v>
+        <v>6.874957129850796</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5.382854257330354</v>
       </c>
       <c r="J3">
-        <v>6.002883745964524</v>
+        <v>5.744387352629122</v>
       </c>
       <c r="K3">
-        <v>19.33324797539616</v>
+        <v>10.14004088413168</v>
       </c>
       <c r="L3">
-        <v>5.52064477097552</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.36994167188242</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.4225355264767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>92.15339292517271</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>8.838015452027749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.172712533340059</v>
+        <v>7.039606314315956</v>
       </c>
       <c r="D4">
-        <v>5.964275754032487</v>
+        <v>3.849142580003156</v>
       </c>
       <c r="E4">
-        <v>8.334337550592366</v>
+        <v>57.87470806520712</v>
       </c>
       <c r="F4">
-        <v>21.17504492039709</v>
+        <v>12.17040120863705</v>
       </c>
       <c r="G4">
-        <v>23.25914095298151</v>
+        <v>13.95125523178735</v>
       </c>
       <c r="H4">
-        <v>9.581282314714018</v>
+        <v>6.272260796914241</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5.203811143237147</v>
       </c>
       <c r="J4">
-        <v>6.047271749975865</v>
+        <v>5.790833708043394</v>
       </c>
       <c r="K4">
-        <v>18.46900850179586</v>
+        <v>10.00512754997874</v>
       </c>
       <c r="L4">
-        <v>5.546055457233826</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.81543200050864</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.56262724147829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>87.4773655145995</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>8.733454437432597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.103944632747716</v>
+        <v>6.924908328987529</v>
       </c>
       <c r="D5">
-        <v>5.915247253198251</v>
+        <v>3.799168200109229</v>
       </c>
       <c r="E5">
-        <v>8.331160274820498</v>
+        <v>56.72727372326106</v>
       </c>
       <c r="F5">
-        <v>21.20511054661935</v>
+        <v>12.00369202595813</v>
       </c>
       <c r="G5">
-        <v>23.31386012042606</v>
+        <v>13.63794904692924</v>
       </c>
       <c r="H5">
-        <v>9.621092295383402</v>
+        <v>6.029634146048279</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5.12965484839041</v>
       </c>
       <c r="J5">
-        <v>6.06580019580785</v>
+        <v>5.810619908114709</v>
       </c>
       <c r="K5">
-        <v>18.10481813623181</v>
+        <v>9.945443832211387</v>
       </c>
       <c r="L5">
-        <v>5.556679655351457</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>14.58384301768189</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.62355529458369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>85.53169502626471</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>8.692753973563851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.092558195727092</v>
+        <v>6.893635527824822</v>
       </c>
       <c r="D6">
-        <v>5.907093276530507</v>
+        <v>3.793382844567937</v>
       </c>
       <c r="E6">
-        <v>8.330692369841159</v>
+        <v>56.53429643807299</v>
       </c>
       <c r="F6">
-        <v>21.21043833016441</v>
+        <v>11.96510584728375</v>
       </c>
       <c r="G6">
-        <v>23.32347050584088</v>
+        <v>13.56531986935315</v>
       </c>
       <c r="H6">
-        <v>9.627799098002138</v>
+        <v>5.989293096970234</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5.116804213211261</v>
       </c>
       <c r="J6">
-        <v>6.068903428729766</v>
+        <v>5.810926786763856</v>
       </c>
       <c r="K6">
-        <v>18.04361936421369</v>
+        <v>9.923549723304218</v>
       </c>
       <c r="L6">
-        <v>5.558460095333213</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.54505463883378</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.63389862120832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>85.20600900080879</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>8.677670302795404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.171782994478015</v>
+        <v>7.005685973417086</v>
       </c>
       <c r="D7">
-        <v>5.963615443601166</v>
+        <v>3.855506779089543</v>
       </c>
       <c r="E7">
-        <v>8.334290687975404</v>
+        <v>57.85949775120909</v>
       </c>
       <c r="F7">
-        <v>21.17542774473399</v>
+        <v>12.13750756128093</v>
       </c>
       <c r="G7">
-        <v>23.25984343218473</v>
+        <v>13.89024740108523</v>
       </c>
       <c r="H7">
-        <v>9.581812709265032</v>
+        <v>6.268405133520185</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5.201331141009011</v>
       </c>
       <c r="J7">
-        <v>6.047519848504079</v>
+        <v>5.782330647230381</v>
       </c>
       <c r="K7">
-        <v>18.46414552209643</v>
+        <v>9.970750141446102</v>
       </c>
       <c r="L7">
-        <v>5.546197647124441</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.81233119282503</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.56343364838494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>87.45112614550311</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>8.708665979222399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.525426681802545</v>
+        <v>7.507151224779464</v>
       </c>
       <c r="D8">
-        <v>6.21069725511077</v>
+        <v>4.106927946434175</v>
       </c>
       <c r="E8">
-        <v>8.358971189907077</v>
+        <v>63.35058059004277</v>
       </c>
       <c r="F8">
-        <v>21.07148824328761</v>
+        <v>12.99339589362335</v>
       </c>
       <c r="G8">
-        <v>23.05891460145434</v>
+        <v>15.60350011383335</v>
       </c>
       <c r="H8">
-        <v>9.393291815641028</v>
+        <v>7.531625947991373</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>5.569884314441768</v>
       </c>
       <c r="J8">
-        <v>5.957019381478448</v>
+        <v>5.695952303369213</v>
       </c>
       <c r="K8">
-        <v>20.2144672889951</v>
+        <v>10.25956770066499</v>
       </c>
       <c r="L8">
-        <v>5.494444842952077</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.94189218493825</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.28673013893275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>97.01976352352789</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>8.951364484617285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.22739723408341</v>
+        <v>8.463596059567106</v>
       </c>
       <c r="D9">
-        <v>6.682722387993172</v>
+        <v>4.565678539680131</v>
       </c>
       <c r="E9">
-        <v>8.440171385275464</v>
+        <v>72.88103032714004</v>
       </c>
       <c r="F9">
-        <v>21.06658103648567</v>
+        <v>15.2793893617296</v>
       </c>
       <c r="G9">
-        <v>22.98661114052113</v>
+        <v>19.46277209724355</v>
       </c>
       <c r="H9">
-        <v>9.079638410116145</v>
+        <v>10.2296856031667</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>6.286975132214008</v>
       </c>
       <c r="J9">
-        <v>5.793383540937002</v>
+        <v>5.690185108750898</v>
       </c>
       <c r="K9">
-        <v>23.26967888410083</v>
+        <v>11.09181566299448</v>
       </c>
       <c r="L9">
-        <v>5.401330996304676</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.96711875610489</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.88122831034999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>114.9918406808854</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10.2862601257685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.74342669057776</v>
+        <v>9.147562697414772</v>
       </c>
       <c r="D10">
-        <v>7.018736100650622</v>
+        <v>4.936785384053601</v>
       </c>
       <c r="E10">
-        <v>8.520837848836335</v>
+        <v>80.10317728030265</v>
       </c>
       <c r="F10">
-        <v>21.19968676611256</v>
+        <v>17.24295925041577</v>
       </c>
       <c r="G10">
-        <v>23.16039042850733</v>
+        <v>22.32357941613597</v>
       </c>
       <c r="H10">
-        <v>8.887883823125083</v>
+        <v>12.53900910072989</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.835544716314365</v>
       </c>
       <c r="J10">
-        <v>5.681578212591307</v>
+        <v>5.757384176199168</v>
       </c>
       <c r="K10">
-        <v>25.28688127348756</v>
+        <v>11.83414416787825</v>
       </c>
       <c r="L10">
-        <v>5.337924809260846</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.3328963394764</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.68105978301364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>128.4042335800242</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.82868631172041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.97735883475302</v>
+        <v>9.674349848668772</v>
       </c>
       <c r="D11">
-        <v>7.168700258966716</v>
+        <v>5.377143257444652</v>
       </c>
       <c r="E11">
-        <v>8.562299965337813</v>
+        <v>91.20007571130289</v>
       </c>
       <c r="F11">
-        <v>21.29309666270305</v>
+        <v>17.40449414621422</v>
       </c>
       <c r="G11">
-        <v>23.29483677015137</v>
+        <v>22.50650395467366</v>
       </c>
       <c r="H11">
-        <v>8.810183614004206</v>
+        <v>14.12414295191471</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>7.185185071883882</v>
       </c>
       <c r="J11">
-        <v>5.632547207134704</v>
+        <v>5.4125929208116</v>
       </c>
       <c r="K11">
-        <v>26.15585944094043</v>
+        <v>11.84574839001144</v>
       </c>
       <c r="L11">
-        <v>5.310144761242618</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>19.92686713529375</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.61454481024913</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>135.0919841980963</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.01589916334683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.06576296206066</v>
+        <v>10.03908451269214</v>
       </c>
       <c r="D12">
-        <v>7.225033288897052</v>
+        <v>5.67076234493276</v>
       </c>
       <c r="E12">
-        <v>8.578701601523742</v>
+        <v>99.33478567287962</v>
       </c>
       <c r="F12">
-        <v>21.33344090756039</v>
+        <v>17.22836778874898</v>
       </c>
       <c r="G12">
-        <v>23.35417007439609</v>
+        <v>22.27356420095481</v>
       </c>
       <c r="H12">
-        <v>8.782236888858172</v>
+        <v>15.21894185930562</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>7.382657798370319</v>
       </c>
       <c r="J12">
-        <v>5.614244769118893</v>
+        <v>5.320920623407476</v>
       </c>
       <c r="K12">
-        <v>26.47798506644909</v>
+        <v>11.66800999650812</v>
       </c>
       <c r="L12">
-        <v>5.299776458613646</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.14781583530027</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.59317750366495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>137.953424150944</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.96259545379635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.04673252414737</v>
+        <v>10.25609293188311</v>
       </c>
       <c r="D13">
-        <v>7.212921776509175</v>
+        <v>5.889504393474851</v>
       </c>
       <c r="E13">
-        <v>8.575137805317933</v>
+        <v>105.8789848261013</v>
       </c>
       <c r="F13">
-        <v>21.32452711752947</v>
+        <v>16.65452536235397</v>
       </c>
       <c r="G13">
-        <v>23.34101022825462</v>
+        <v>21.48225881113106</v>
       </c>
       <c r="H13">
-        <v>8.788188244750714</v>
+        <v>15.88313727057727</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>7.461386189876822</v>
       </c>
       <c r="J13">
-        <v>5.61817473228992</v>
+        <v>5.095735632625396</v>
       </c>
       <c r="K13">
-        <v>26.40891709507179</v>
+        <v>11.22419295880575</v>
       </c>
       <c r="L13">
-        <v>5.302002749535166</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.10040791385466</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.59760466332282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>137.7273977978085</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.61348311794782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.98463585694782</v>
+        <v>10.33497779554197</v>
       </c>
       <c r="D14">
-        <v>7.17334413984636</v>
+        <v>6.013737622663521</v>
       </c>
       <c r="E14">
-        <v>8.563635205410177</v>
+        <v>109.8261637639675</v>
       </c>
       <c r="F14">
-        <v>21.29631479015548</v>
+        <v>16.04664192641977</v>
       </c>
       <c r="G14">
-        <v>23.29954691617159</v>
+        <v>20.63899416041627</v>
       </c>
       <c r="H14">
-        <v>8.807854182172369</v>
+        <v>16.17372427830447</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>7.461914165042005</v>
       </c>
       <c r="J14">
-        <v>5.631036142568195</v>
+        <v>4.866907403093554</v>
       </c>
       <c r="K14">
-        <v>26.18249958931221</v>
+        <v>10.77154452410732</v>
       </c>
       <c r="L14">
-        <v>5.309288729458503</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>19.94512458389385</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.61270863318295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>136.1416643504681</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.21968431456924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.94657454407396</v>
+        <v>10.30855602802618</v>
       </c>
       <c r="D15">
-        <v>7.149041342360792</v>
+        <v>6.03001877142801</v>
       </c>
       <c r="E15">
-        <v>8.55668124954834</v>
+        <v>110.424730164312</v>
       </c>
       <c r="F15">
-        <v>21.27968854816173</v>
+        <v>15.78523148600082</v>
       </c>
       <c r="G15">
-        <v>23.27525897867238</v>
+        <v>20.26021377126175</v>
       </c>
       <c r="H15">
-        <v>8.820095761727483</v>
+        <v>16.12333743294483</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>7.433136628210709</v>
       </c>
       <c r="J15">
-        <v>5.638948630641289</v>
+        <v>4.768661176524784</v>
       </c>
       <c r="K15">
-        <v>26.0429107112963</v>
+        <v>10.5795520204039</v>
       </c>
       <c r="L15">
-        <v>5.313771272653796</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>19.8494903301336</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.62246662492065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>135.0826503553515</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.03417114702415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.72811665209508</v>
+        <v>9.943549613331172</v>
       </c>
       <c r="D16">
-        <v>7.008873926379391</v>
+        <v>5.859908352532134</v>
       </c>
       <c r="E16">
-        <v>8.518225444989362</v>
+        <v>106.5205117472738</v>
       </c>
       <c r="F16">
-        <v>21.19426477909288</v>
+        <v>14.7981972010201</v>
       </c>
       <c r="G16">
-        <v>23.15275859628233</v>
+        <v>18.70830226367874</v>
       </c>
       <c r="H16">
-        <v>8.893162344162839</v>
+        <v>14.85420934390416</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>7.154759398432406</v>
       </c>
       <c r="J16">
-        <v>5.68481943242121</v>
+        <v>4.395360810481283</v>
       </c>
       <c r="K16">
-        <v>25.22911733895314</v>
+        <v>9.906445084032974</v>
       </c>
       <c r="L16">
-        <v>5.339761572063082</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.29352475164942</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.68592519083111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>128.8337300441893</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.21986775702953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.59384341793878</v>
+        <v>9.622580889253966</v>
       </c>
       <c r="D17">
-        <v>6.922115623146205</v>
+        <v>5.656150779940485</v>
       </c>
       <c r="E17">
-        <v>8.495865997518985</v>
+        <v>101.2955794385879</v>
       </c>
       <c r="F17">
-        <v>21.15045525776577</v>
+        <v>14.42463279745746</v>
       </c>
       <c r="G17">
-        <v>23.09213314183707</v>
+        <v>18.06777730686189</v>
       </c>
       <c r="H17">
-        <v>8.940499735699529</v>
+        <v>13.73777570227255</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6.947693095251929</v>
       </c>
       <c r="J17">
-        <v>5.713429169350677</v>
+        <v>4.332904169927527</v>
       </c>
       <c r="K17">
-        <v>24.7174595601685</v>
+        <v>9.671360621235909</v>
       </c>
       <c r="L17">
-        <v>5.355977114656736</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>18.94542043965323</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.73134447874686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>125.0471572674359</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9.849264784899118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.51653984769033</v>
+        <v>9.33299917872972</v>
       </c>
       <c r="D18">
-        <v>6.871944514476601</v>
+        <v>5.399950770361456</v>
       </c>
       <c r="E18">
-        <v>8.48345319727842</v>
+        <v>94.44032836659943</v>
       </c>
       <c r="F18">
-        <v>21.12833595563287</v>
+        <v>14.57967679604</v>
       </c>
       <c r="G18">
-        <v>23.06245191583897</v>
+        <v>18.24229286004336</v>
       </c>
       <c r="H18">
-        <v>8.968617013876861</v>
+        <v>12.66331447115471</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6.78125033471211</v>
       </c>
       <c r="J18">
-        <v>5.730056845479535</v>
+        <v>4.666806131059869</v>
       </c>
       <c r="K18">
-        <v>24.41858375796634</v>
+        <v>9.830850587381192</v>
       </c>
       <c r="L18">
-        <v>5.365404084283365</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.74262926818076</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.75976032385478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>122.8065979300646</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.871292652162225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.49035571767098</v>
+        <v>9.051522499936903</v>
       </c>
       <c r="D19">
-        <v>6.8549123572168</v>
+        <v>5.138338564403056</v>
       </c>
       <c r="E19">
-        <v>8.479326862621422</v>
+        <v>86.96195030592352</v>
       </c>
       <c r="F19">
-        <v>21.12136782013779</v>
+        <v>15.11943896110844</v>
       </c>
       <c r="G19">
-        <v>23.05327901681547</v>
+        <v>19.05242936650439</v>
       </c>
       <c r="H19">
-        <v>8.978286829756023</v>
+        <v>11.86228864884427</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6.665709889857244</v>
       </c>
       <c r="J19">
-        <v>5.735716217400815</v>
+        <v>5.075867498193503</v>
       </c>
       <c r="K19">
-        <v>24.31660056331443</v>
+        <v>10.26606367557499</v>
       </c>
       <c r="L19">
-        <v>5.368613154566891</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.67352780401115</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.76976638694933</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>121.9362998017688</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.21314905338222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.60814509651417</v>
+        <v>8.88952620285249</v>
       </c>
       <c r="D20">
-        <v>6.93137944341409</v>
+        <v>4.863390039122972</v>
       </c>
       <c r="E20">
-        <v>8.498199744048945</v>
+        <v>78.29874223624651</v>
       </c>
       <c r="F20">
-        <v>21.15479839082622</v>
+        <v>16.63574319586794</v>
       </c>
       <c r="G20">
-        <v>23.09804635784347</v>
+        <v>21.41231465047447</v>
       </c>
       <c r="H20">
-        <v>8.935367732529691</v>
+        <v>11.89482617064884</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6.686593090571964</v>
       </c>
       <c r="J20">
-        <v>5.710365792626456</v>
+        <v>5.695981632732483</v>
       </c>
       <c r="K20">
-        <v>24.77240039605523</v>
+        <v>11.46931946870388</v>
       </c>
       <c r="L20">
-        <v>5.354240581593397</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>18.98274318832963</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.72627024451252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>124.8105975090764</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.34686225762447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.0028805302197</v>
+        <v>9.392395275358872</v>
       </c>
       <c r="D21">
-        <v>7.184981691309432</v>
+        <v>5.075379292570227</v>
       </c>
       <c r="E21">
-        <v>8.566994656844001</v>
+        <v>82.22804372730137</v>
       </c>
       <c r="F21">
-        <v>21.30446458771701</v>
+        <v>18.37212759144088</v>
       </c>
       <c r="G21">
-        <v>23.31149371494486</v>
+        <v>24.01167971613191</v>
       </c>
       <c r="H21">
-        <v>8.802036848114133</v>
+        <v>13.84033077857665</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>7.109491849841191</v>
       </c>
       <c r="J21">
-        <v>5.627251240867772</v>
+        <v>5.896310339958715</v>
       </c>
       <c r="K21">
-        <v>26.24919168193375</v>
+        <v>12.57877165000393</v>
       </c>
       <c r="L21">
-        <v>5.307144564102863</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>19.99084322191498</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.60816616812896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>135.5333259076226</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.71707939227634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.2597850685396</v>
+        <v>9.773172975991756</v>
       </c>
       <c r="D22">
-        <v>7.348058028133535</v>
+        <v>5.211040679387932</v>
       </c>
       <c r="E22">
-        <v>8.616047962261238</v>
+        <v>85.18814967305981</v>
       </c>
       <c r="F22">
-        <v>21.43136643924329</v>
+        <v>19.54976730242144</v>
       </c>
       <c r="G22">
-        <v>23.50026107846765</v>
+        <v>25.80158238419139</v>
       </c>
       <c r="H22">
-        <v>8.723560883405327</v>
+        <v>15.33005661965263</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>7.408978143548599</v>
       </c>
       <c r="J22">
-        <v>5.574474111353823</v>
+        <v>6.25176943318779</v>
       </c>
       <c r="K22">
-        <v>27.17395419397027</v>
+        <v>13.40425526480809</v>
       </c>
       <c r="L22">
-        <v>5.277246336041444</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>20.62651540701741</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.55338957776487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>143.1733295181844</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.65811681428259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.12278780206751</v>
+        <v>9.597007840148429</v>
       </c>
       <c r="D23">
-        <v>7.261276828175993</v>
+        <v>5.13333205989395</v>
       </c>
       <c r="E23">
-        <v>8.589487902424114</v>
+        <v>83.61312705130378</v>
       </c>
       <c r="F23">
-        <v>21.36089663928469</v>
+        <v>18.93868573199351</v>
       </c>
       <c r="G23">
-        <v>23.39486483869876</v>
+        <v>24.87363308732358</v>
       </c>
       <c r="H23">
-        <v>8.76461459733869</v>
+        <v>14.50912945340341</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>7.247744993173585</v>
       </c>
       <c r="J23">
-        <v>5.602500445625333</v>
+        <v>6.028697932915666</v>
       </c>
       <c r="K23">
-        <v>26.68406716764575</v>
+        <v>12.99147879684675</v>
       </c>
       <c r="L23">
-        <v>5.293123420667571</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>20.28937672100549</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.58047522018803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>139.010446900256</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.16924079197235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.60167963936732</v>
+        <v>8.9060018626106</v>
       </c>
       <c r="D24">
-        <v>6.927192178605979</v>
+        <v>4.823216478052112</v>
       </c>
       <c r="E24">
-        <v>8.497143281856825</v>
+        <v>77.49734196231887</v>
       </c>
       <c r="F24">
-        <v>21.15282532502809</v>
+        <v>16.73007295406897</v>
       </c>
       <c r="G24">
-        <v>23.09535691476378</v>
+        <v>21.57224842725519</v>
       </c>
       <c r="H24">
-        <v>8.937685108368134</v>
+        <v>11.85270771386977</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6.674213271274739</v>
       </c>
       <c r="J24">
-        <v>5.711750186062067</v>
+        <v>5.753738503090513</v>
       </c>
       <c r="K24">
-        <v>24.74757634076062</v>
+        <v>11.58942423879985</v>
       </c>
       <c r="L24">
-        <v>5.355025342771027</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>18.96587785958276</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.72855715226006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>124.6288093947686</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.42049616377513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.0371170961664</v>
+        <v>8.161923493907357</v>
       </c>
       <c r="D25">
-        <v>6.556713225219303</v>
+        <v>4.443769961771408</v>
       </c>
       <c r="E25">
-        <v>8.414585622482116</v>
+        <v>70.43044849772011</v>
       </c>
       <c r="F25">
-        <v>21.04499853546605</v>
+        <v>14.48820560812444</v>
       </c>
       <c r="G25">
-        <v>22.96848700611209</v>
+        <v>18.31097079585692</v>
       </c>
       <c r="H25">
-        <v>9.158051435826975</v>
+        <v>9.461506012153636</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>6.090329989582127</v>
       </c>
       <c r="J25">
-        <v>5.836173197885405</v>
+        <v>5.655435610308103</v>
       </c>
       <c r="K25">
-        <v>22.4833183664097</v>
+        <v>10.78246983096345</v>
       </c>
       <c r="L25">
-        <v>5.425634656811183</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.44033510758808</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.97483858803037</v>
+        <v>110.1610036881932</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>9.666806776983403</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.679654788400785</v>
+        <v>7.45637385219892</v>
       </c>
       <c r="D2">
-        <v>4.161695127941998</v>
+        <v>4.375761228403788</v>
       </c>
       <c r="E2">
-        <v>64.75280030579388</v>
+        <v>64.78183364463402</v>
       </c>
       <c r="F2">
-        <v>13.28236660291342</v>
+        <v>12.74209712518168</v>
       </c>
       <c r="G2">
-        <v>16.18060869690449</v>
+        <v>15.17905311179126</v>
       </c>
       <c r="H2">
-        <v>7.885242769857551</v>
+        <v>7.769035025380863</v>
       </c>
       <c r="I2">
-        <v>5.670865519599367</v>
+        <v>5.336047795315785</v>
       </c>
       <c r="J2">
-        <v>5.694079452170758</v>
+        <v>6.643729755295944</v>
       </c>
       <c r="K2">
-        <v>10.39735555517338</v>
+        <v>9.998385609628393</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.62153370780708</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.404834974486423</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>99.54226411399129</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.072891120894955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>99.49555151398971</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>8.768080722520251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.289863897981369</v>
+        <v>7.098085480729948</v>
       </c>
       <c r="D3">
-        <v>3.972668773208296</v>
+        <v>4.160169452095563</v>
       </c>
       <c r="E3">
-        <v>60.59038446199724</v>
+        <v>60.6118388611801</v>
       </c>
       <c r="F3">
-        <v>12.57479408360122</v>
+        <v>12.18337863185748</v>
       </c>
       <c r="G3">
-        <v>14.71844466722461</v>
+        <v>13.78724271549705</v>
       </c>
       <c r="H3">
-        <v>6.874957129850796</v>
+        <v>6.774524561936862</v>
       </c>
       <c r="I3">
-        <v>5.382854257330354</v>
+        <v>5.090443798224892</v>
       </c>
       <c r="J3">
-        <v>5.744387352629122</v>
+        <v>6.709153210745631</v>
       </c>
       <c r="K3">
-        <v>10.14004088413168</v>
+        <v>9.882901269826853</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.74802809986155</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.481967040638358</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>92.15339292517271</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8.838015452027749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>92.11992996736457</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>8.659743574150653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.039606314315956</v>
+        <v>6.870748205633934</v>
       </c>
       <c r="D4">
-        <v>3.849142580003156</v>
+        <v>4.019520940179901</v>
       </c>
       <c r="E4">
-        <v>57.87470806520712</v>
+        <v>57.89198846205884</v>
       </c>
       <c r="F4">
-        <v>12.17040120863705</v>
+        <v>11.86930410179332</v>
       </c>
       <c r="G4">
-        <v>13.95125523178735</v>
+        <v>12.95599453110093</v>
       </c>
       <c r="H4">
-        <v>6.272260796914241</v>
+        <v>6.181152904325917</v>
       </c>
       <c r="I4">
-        <v>5.203811143237147</v>
+        <v>4.937706837930487</v>
       </c>
       <c r="J4">
-        <v>5.790833708043394</v>
+        <v>6.756546448137941</v>
       </c>
       <c r="K4">
-        <v>10.00512754997874</v>
+        <v>9.829340171448566</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.82845687836884</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.893166862382507</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>87.4773655145995</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8.733454437432597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>87.45074865357064</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>8.62719837352782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.924908328987529</v>
+        <v>6.767969668822231</v>
       </c>
       <c r="D5">
-        <v>3.799168200109229</v>
+        <v>3.96228632156144</v>
       </c>
       <c r="E5">
-        <v>56.72727372326106</v>
+        <v>56.74294732380923</v>
       </c>
       <c r="F5">
-        <v>12.00369202595813</v>
+        <v>11.73943956143374</v>
       </c>
       <c r="G5">
-        <v>13.63794904692924</v>
+        <v>12.60624730915534</v>
       </c>
       <c r="H5">
-        <v>6.029634146048279</v>
+        <v>5.942283003380497</v>
       </c>
       <c r="I5">
-        <v>5.12965484839041</v>
+        <v>4.874581482266549</v>
       </c>
       <c r="J5">
-        <v>5.810619908114709</v>
+        <v>6.775301749641037</v>
       </c>
       <c r="K5">
-        <v>9.945443832211387</v>
+        <v>9.802278566861908</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.85532064939903</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4.639932330379167</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>85.53169502626471</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8.692753973563851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>85.50762778564024</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>8.614900661068448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.893635527824822</v>
+        <v>6.740922578677967</v>
       </c>
       <c r="D6">
-        <v>3.793382844567937</v>
+        <v>3.955184008307397</v>
       </c>
       <c r="E6">
-        <v>56.53429643807299</v>
+        <v>56.54971169730902</v>
       </c>
       <c r="F6">
-        <v>11.96510584728375</v>
+        <v>11.70748872423415</v>
       </c>
       <c r="G6">
-        <v>13.56531986935315</v>
+        <v>12.52790249880413</v>
       </c>
       <c r="H6">
-        <v>5.989293096970234</v>
+        <v>5.902581960731867</v>
       </c>
       <c r="I6">
-        <v>5.116804213211261</v>
+        <v>4.863864422506898</v>
       </c>
       <c r="J6">
-        <v>5.810926786763856</v>
+        <v>6.775839134695503</v>
       </c>
       <c r="K6">
-        <v>9.923549723304218</v>
+        <v>9.786829527913868</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.85185292555012</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>4.588430967466295</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>85.20600900080879</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8.677670302795404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>85.18235775479201</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>8.605107271689883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.005685973417086</v>
+        <v>6.845723178877816</v>
       </c>
       <c r="D7">
-        <v>3.855506779089543</v>
+        <v>4.029600328621358</v>
       </c>
       <c r="E7">
-        <v>57.85949775120909</v>
+        <v>57.87683290193421</v>
       </c>
       <c r="F7">
-        <v>12.13750756128093</v>
+        <v>11.82082484998764</v>
       </c>
       <c r="G7">
-        <v>13.89024740108523</v>
+        <v>13.00625235522169</v>
       </c>
       <c r="H7">
-        <v>6.268405133520185</v>
+        <v>6.177075376300823</v>
       </c>
       <c r="I7">
-        <v>5.201331141009011</v>
+        <v>4.935544897027562</v>
       </c>
       <c r="J7">
-        <v>5.782330647230381</v>
+        <v>6.707827806366132</v>
       </c>
       <c r="K7">
-        <v>9.970750141446102</v>
+        <v>9.788184673352184</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.80033401942803</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.857250099798513</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>87.45112614550311</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8.708665979222399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>87.42446656175917</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>8.591170271755741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.507151224779464</v>
+        <v>7.310405577492595</v>
       </c>
       <c r="D8">
-        <v>4.106927946434175</v>
+        <v>4.324434464324647</v>
       </c>
       <c r="E8">
-        <v>63.35058059004277</v>
+        <v>63.37715116772375</v>
       </c>
       <c r="F8">
-        <v>12.99339589362335</v>
+        <v>12.45042379589539</v>
       </c>
       <c r="G8">
-        <v>15.60350011383335</v>
+        <v>14.9569077953312</v>
       </c>
       <c r="H8">
-        <v>7.531625947991373</v>
+        <v>7.42000670360974</v>
       </c>
       <c r="I8">
-        <v>5.569884314441768</v>
+        <v>5.248772827342884</v>
       </c>
       <c r="J8">
-        <v>5.695952303369213</v>
+        <v>6.514593175353962</v>
       </c>
       <c r="K8">
-        <v>10.25956770066499</v>
+        <v>9.880690751494974</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.61582064775141</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.03590671349622</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>97.01976352352789</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8.951364484617285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>96.97758868011856</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>8.648805383882136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.463596059567106</v>
+        <v>8.206954713587649</v>
       </c>
       <c r="D9">
-        <v>4.565678539680131</v>
+        <v>4.805406181885345</v>
       </c>
       <c r="E9">
-        <v>72.88103032714004</v>
+        <v>72.93121642931422</v>
       </c>
       <c r="F9">
-        <v>15.2793893617296</v>
+        <v>14.11900366455509</v>
       </c>
       <c r="G9">
-        <v>19.46277209724355</v>
+        <v>18.66479561550088</v>
       </c>
       <c r="H9">
-        <v>10.2296856031667</v>
+        <v>10.07427977722873</v>
       </c>
       <c r="I9">
-        <v>6.286975132214008</v>
+        <v>5.858870207737856</v>
       </c>
       <c r="J9">
-        <v>5.690185108750898</v>
+        <v>6.361855327837924</v>
       </c>
       <c r="K9">
-        <v>11.09181566299448</v>
+        <v>10.31536913740815</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.34188250404556</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.259194077921823</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>114.9918406808854</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10.2862601257685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>114.9034437674746</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>9.195136848517564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.147562697414772</v>
+        <v>8.898388031957218</v>
       </c>
       <c r="D10">
-        <v>4.936785384053601</v>
+        <v>5.155726857452328</v>
       </c>
       <c r="E10">
-        <v>80.10317728030265</v>
+        <v>80.17497359747281</v>
       </c>
       <c r="F10">
-        <v>17.24295925041577</v>
+        <v>15.74651595584708</v>
       </c>
       <c r="G10">
-        <v>22.32357941613597</v>
+        <v>21.86797446101178</v>
       </c>
       <c r="H10">
-        <v>12.53900910072989</v>
+        <v>12.34065617696315</v>
       </c>
       <c r="I10">
-        <v>6.835544716314365</v>
+        <v>6.322475936199035</v>
       </c>
       <c r="J10">
-        <v>5.757384176199168</v>
+        <v>5.999744796087185</v>
       </c>
       <c r="K10">
-        <v>11.83414416787825</v>
+        <v>10.62074470966391</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.07402879652392</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.761075890689138</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>128.4042335800242</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.82868631172041</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>128.2543683058839</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10.45373942537346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.674349848668772</v>
+        <v>9.537907248052703</v>
       </c>
       <c r="D11">
-        <v>5.377143257444652</v>
+        <v>5.629240885887487</v>
       </c>
       <c r="E11">
-        <v>91.20007571130289</v>
+        <v>91.24535350501755</v>
       </c>
       <c r="F11">
-        <v>17.40449414621422</v>
+        <v>15.6539099172941</v>
       </c>
       <c r="G11">
-        <v>22.50650395467366</v>
+        <v>23.0722002150817</v>
       </c>
       <c r="H11">
-        <v>14.12414295191471</v>
+        <v>13.89381572130684</v>
       </c>
       <c r="I11">
-        <v>7.185185071883882</v>
+        <v>6.616030631683321</v>
       </c>
       <c r="J11">
-        <v>5.4125929208116</v>
+        <v>5.032057484807056</v>
       </c>
       <c r="K11">
-        <v>11.84574839001144</v>
+        <v>9.956872059581311</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.435997033171594</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.15793606666634</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>135.0919841980963</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.01589916334683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>134.8875454558861</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.4351403004007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.03908451269214</v>
+        <v>9.984722328353365</v>
       </c>
       <c r="D12">
-        <v>5.67076234493276</v>
+        <v>5.927918118450068</v>
       </c>
       <c r="E12">
-        <v>99.33478567287962</v>
+        <v>99.34763395408901</v>
       </c>
       <c r="F12">
-        <v>17.22836778874898</v>
+        <v>15.37602321027489</v>
       </c>
       <c r="G12">
-        <v>22.27356420095481</v>
+        <v>23.33764407422276</v>
       </c>
       <c r="H12">
-        <v>15.21894185930562</v>
+        <v>14.97233853647701</v>
       </c>
       <c r="I12">
-        <v>7.382657798370319</v>
+        <v>6.781888578545729</v>
       </c>
       <c r="J12">
-        <v>5.320920623407476</v>
+        <v>4.462255714080433</v>
       </c>
       <c r="K12">
-        <v>11.66800999650812</v>
+        <v>9.646410944450404</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.993231145107996</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.27970835199931</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>137.953424150944</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.96259545379635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>137.7142622053442</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.30744802435676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.25609293188311</v>
+        <v>10.26776669001924</v>
       </c>
       <c r="D13">
-        <v>5.889504393474851</v>
+        <v>6.12223113621106</v>
       </c>
       <c r="E13">
-        <v>105.8789848261013</v>
+        <v>105.8550664484355</v>
       </c>
       <c r="F13">
-        <v>16.65452536235397</v>
+        <v>14.84324424281208</v>
       </c>
       <c r="G13">
-        <v>21.48225881113106</v>
+        <v>22.57527472742692</v>
       </c>
       <c r="H13">
-        <v>15.88313727057727</v>
+        <v>15.63623910631811</v>
       </c>
       <c r="I13">
-        <v>7.461386189876822</v>
+        <v>6.850093051133549</v>
       </c>
       <c r="J13">
-        <v>5.095735632625396</v>
+        <v>4.217719890091339</v>
       </c>
       <c r="K13">
-        <v>11.22419295880575</v>
+        <v>9.250420608206602</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.64817791566893</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.14653940165202</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>137.7273977978085</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.61348311794782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>137.4810364356327</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.99874179560975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.33497779554197</v>
+        <v>10.38839073475271</v>
       </c>
       <c r="D14">
-        <v>6.013737622663521</v>
+        <v>6.216167912893457</v>
       </c>
       <c r="E14">
-        <v>109.8261637639675</v>
+        <v>109.7762395121772</v>
       </c>
       <c r="F14">
-        <v>16.04664192641977</v>
+        <v>14.32609978494851</v>
       </c>
       <c r="G14">
-        <v>20.63899416041627</v>
+        <v>21.57415456359243</v>
       </c>
       <c r="H14">
-        <v>16.17372427830447</v>
+        <v>15.93453469061202</v>
       </c>
       <c r="I14">
-        <v>7.461914165042005</v>
+        <v>6.853152429598122</v>
       </c>
       <c r="J14">
-        <v>4.866907403093554</v>
+        <v>4.176097174055576</v>
       </c>
       <c r="K14">
-        <v>10.77154452410732</v>
+        <v>8.885459677425688</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.442061373260854</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.928658018145061</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>136.1416643504681</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.21968431456924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>135.9043394108154</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.680313121418523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.30855602802618</v>
+        <v>10.37048556481867</v>
       </c>
       <c r="D15">
-        <v>6.03001877142801</v>
+        <v>6.219501467647097</v>
       </c>
       <c r="E15">
-        <v>110.424730164312</v>
+        <v>110.3691176011277</v>
       </c>
       <c r="F15">
-        <v>15.78523148600082</v>
+        <v>14.11572217868686</v>
       </c>
       <c r="G15">
-        <v>20.26021377126175</v>
+        <v>21.08445493917882</v>
       </c>
       <c r="H15">
-        <v>16.12333743294483</v>
+        <v>15.8896510895598</v>
       </c>
       <c r="I15">
-        <v>7.433136628210709</v>
+        <v>6.830302154092324</v>
       </c>
       <c r="J15">
-        <v>4.768661176524784</v>
+        <v>4.223611377934706</v>
       </c>
       <c r="K15">
-        <v>10.5795520204039</v>
+        <v>8.740597649732999</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.405592827068794</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.803728595721829</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>135.0826503553515</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.03417114702415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>134.8541007888885</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.534770665972921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.943549613331172</v>
+        <v>9.969445769935817</v>
       </c>
       <c r="D16">
-        <v>5.859908352532134</v>
+        <v>6.003351662029577</v>
       </c>
       <c r="E16">
-        <v>106.5205117472738</v>
+        <v>106.4715921271026</v>
       </c>
       <c r="F16">
-        <v>14.7981972010201</v>
+        <v>13.38840223617855</v>
       </c>
       <c r="G16">
-        <v>18.70830226367874</v>
+        <v>18.8953234009714</v>
       </c>
       <c r="H16">
-        <v>14.85420934390416</v>
+        <v>14.6512114003674</v>
       </c>
       <c r="I16">
-        <v>7.154759398432406</v>
+        <v>6.599702840512338</v>
       </c>
       <c r="J16">
-        <v>4.395360810481283</v>
+        <v>4.76262381594041</v>
       </c>
       <c r="K16">
-        <v>9.906445084032974</v>
+        <v>8.302359470623282</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.601016858516607</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.149597538110459</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>128.8337300441893</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.21986775702953</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>128.6587043475303</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>8.916529163819641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.622580889253966</v>
+        <v>9.603097565942873</v>
       </c>
       <c r="D17">
-        <v>5.656150779940485</v>
+        <v>5.785535872329915</v>
       </c>
       <c r="E17">
-        <v>101.2955794385879</v>
+        <v>101.2625925124257</v>
       </c>
       <c r="F17">
-        <v>14.42463279745746</v>
+        <v>13.14790855330734</v>
       </c>
       <c r="G17">
-        <v>18.06777730686189</v>
+        <v>17.89120336553203</v>
       </c>
       <c r="H17">
-        <v>13.73777570227255</v>
+        <v>13.55066808869958</v>
       </c>
       <c r="I17">
-        <v>6.947693095251929</v>
+        <v>6.426074838874298</v>
       </c>
       <c r="J17">
-        <v>4.332904169927527</v>
+        <v>5.150806204459264</v>
       </c>
       <c r="K17">
-        <v>9.671360621235909</v>
+        <v>8.393171456731231</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.858552174034045</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.772591207510516</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>125.0471572674359</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9.849264784899118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>124.9004216359072</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>8.648304784023624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.33299917872972</v>
+        <v>9.245803824587071</v>
       </c>
       <c r="D18">
-        <v>5.399950770361456</v>
+        <v>5.534033432487378</v>
       </c>
       <c r="E18">
-        <v>94.44032836659943</v>
+        <v>94.4310257898198</v>
       </c>
       <c r="F18">
-        <v>14.57967679604</v>
+        <v>13.36249639771178</v>
       </c>
       <c r="G18">
-        <v>18.24229286004336</v>
+        <v>17.7708820798604</v>
       </c>
       <c r="H18">
-        <v>12.66331447115471</v>
+        <v>12.48386337363767</v>
       </c>
       <c r="I18">
-        <v>6.78125033471211</v>
+        <v>6.284293872170322</v>
       </c>
       <c r="J18">
-        <v>4.666806131059869</v>
+        <v>5.531160808948208</v>
       </c>
       <c r="K18">
-        <v>9.830850587381192</v>
+        <v>8.881490404351574</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.22119819452208</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.634829384470201</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>122.8065979300646</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9.871292652162225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>122.6770729528833</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>8.719299831836743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.051522499936903</v>
+        <v>8.897121968738631</v>
       </c>
       <c r="D19">
-        <v>5.138338564403056</v>
+        <v>5.288041575695716</v>
       </c>
       <c r="E19">
-        <v>86.96195030592352</v>
+        <v>86.98043481815557</v>
       </c>
       <c r="F19">
-        <v>15.11943896110844</v>
+        <v>13.90517036931289</v>
       </c>
       <c r="G19">
-        <v>19.05242936650439</v>
+        <v>18.33443285289107</v>
       </c>
       <c r="H19">
-        <v>11.86228864884427</v>
+        <v>11.68524568341653</v>
       </c>
       <c r="I19">
-        <v>6.665709889857244</v>
+        <v>6.185693939316109</v>
       </c>
       <c r="J19">
-        <v>5.075867498193503</v>
+        <v>5.893085708294151</v>
       </c>
       <c r="K19">
-        <v>10.26606367557499</v>
+        <v>9.487752150425454</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.610332880284872</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.69814434493909</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>121.9362998017688</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10.21314905338222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>121.8158517993115</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>9.06750769555625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.88952620285249</v>
+        <v>8.651164301718579</v>
       </c>
       <c r="D20">
-        <v>4.863390039122972</v>
+        <v>5.070730889348892</v>
       </c>
       <c r="E20">
-        <v>78.29874223624651</v>
+        <v>78.36353303343066</v>
       </c>
       <c r="F20">
-        <v>16.63574319586794</v>
+        <v>15.27888645431888</v>
       </c>
       <c r="G20">
-        <v>21.41231465047447</v>
+        <v>20.61349632491991</v>
       </c>
       <c r="H20">
-        <v>11.89482617064884</v>
+        <v>11.71010394540397</v>
       </c>
       <c r="I20">
-        <v>6.686593090571964</v>
+        <v>6.200436223797516</v>
       </c>
       <c r="J20">
-        <v>5.695981632732483</v>
+        <v>6.224488912867245</v>
       </c>
       <c r="K20">
-        <v>11.46931946870388</v>
+        <v>10.46778531195576</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.10515734809566</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.328431227615068</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>124.8105975090764</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.34686225762447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>124.6812361590405</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10.08830162737985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.392395275358872</v>
+        <v>9.190329448386008</v>
       </c>
       <c r="D21">
-        <v>5.075379292570227</v>
+        <v>5.371920858286075</v>
       </c>
       <c r="E21">
-        <v>82.22804372730137</v>
+        <v>82.3230716110227</v>
       </c>
       <c r="F21">
-        <v>18.37212759144088</v>
+        <v>16.50187794334128</v>
       </c>
       <c r="G21">
-        <v>24.01167971613191</v>
+        <v>24.7568185537106</v>
       </c>
       <c r="H21">
-        <v>13.84033077857665</v>
+        <v>13.61151733595511</v>
       </c>
       <c r="I21">
-        <v>7.109491849841191</v>
+        <v>6.548694492701046</v>
       </c>
       <c r="J21">
-        <v>5.896310339958715</v>
+        <v>5.236062274065817</v>
       </c>
       <c r="K21">
-        <v>12.57877165000393</v>
+        <v>10.73398399474243</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.899654680987419</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.43697611892994</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>135.5333259076226</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.71707939227634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>135.3321622790249</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.03430768282461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.773172975991756</v>
+        <v>9.602181379870096</v>
       </c>
       <c r="D22">
-        <v>5.211040679387932</v>
+        <v>5.574617468564109</v>
       </c>
       <c r="E22">
-        <v>85.18814967305981</v>
+        <v>85.30619513331241</v>
       </c>
       <c r="F22">
-        <v>19.54976730242144</v>
+        <v>17.33895123094732</v>
       </c>
       <c r="G22">
-        <v>25.80158238419139</v>
+        <v>27.56524296630795</v>
       </c>
       <c r="H22">
-        <v>15.33005661965263</v>
+        <v>15.06315212812978</v>
       </c>
       <c r="I22">
-        <v>7.408978143548599</v>
+        <v>6.794684521170296</v>
       </c>
       <c r="J22">
-        <v>6.25176943318779</v>
+        <v>4.566417894313035</v>
       </c>
       <c r="K22">
-        <v>13.40425526480809</v>
+        <v>11.03576391048252</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.767066815311882</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.18809248243312</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>143.1733295181844</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.65811681428259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>142.8951246250692</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.69699326511566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.597007840148429</v>
+        <v>9.395501359372458</v>
       </c>
       <c r="D23">
-        <v>5.13333205989395</v>
+        <v>5.452657246960032</v>
       </c>
       <c r="E23">
-        <v>83.61312705130378</v>
+        <v>83.71798243235303</v>
       </c>
       <c r="F23">
-        <v>18.93868573199351</v>
+        <v>16.94215552313567</v>
       </c>
       <c r="G23">
-        <v>24.87363308732358</v>
+        <v>25.91559121606588</v>
       </c>
       <c r="H23">
-        <v>14.50912945340341</v>
+        <v>14.26437892874486</v>
       </c>
       <c r="I23">
-        <v>7.247744993173585</v>
+        <v>6.662400767667391</v>
       </c>
       <c r="J23">
-        <v>6.028697932915666</v>
+        <v>5.026894555856424</v>
       </c>
       <c r="K23">
-        <v>12.99147879684675</v>
+        <v>10.88360370161202</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.871161342522027</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.81891809464042</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>139.010446900256</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.16924079197235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>138.7782009310007</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.38244969096683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.9060018626106</v>
+        <v>8.648808834570763</v>
       </c>
       <c r="D24">
-        <v>4.823216478052112</v>
+        <v>5.038431868095998</v>
       </c>
       <c r="E24">
-        <v>77.49734196231887</v>
+        <v>77.56491157321136</v>
       </c>
       <c r="F24">
-        <v>16.73007295406897</v>
+        <v>15.37490902266913</v>
       </c>
       <c r="G24">
-        <v>21.57224842725519</v>
+        <v>20.73592882347862</v>
       </c>
       <c r="H24">
-        <v>11.85270771386977</v>
+        <v>11.66887835957893</v>
       </c>
       <c r="I24">
-        <v>6.674213271274739</v>
+        <v>6.188484958372533</v>
       </c>
       <c r="J24">
-        <v>5.753738503090513</v>
+        <v>6.282113521277364</v>
       </c>
       <c r="K24">
-        <v>11.58942423879985</v>
+        <v>10.58158468167395</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.18062615167152</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.367728413177529</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>124.6288093947686</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.42049616377513</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>124.5006449249214</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10.16370527730005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.161923493907357</v>
+        <v>7.926318906715337</v>
       </c>
       <c r="D25">
-        <v>4.443769961771408</v>
+        <v>4.689368135557659</v>
       </c>
       <c r="E25">
-        <v>70.43044849772011</v>
+        <v>70.47316144076265</v>
       </c>
       <c r="F25">
-        <v>14.48820560812444</v>
+        <v>13.56221365435661</v>
       </c>
       <c r="G25">
-        <v>18.31097079585692</v>
+        <v>17.4356112884981</v>
       </c>
       <c r="H25">
-        <v>9.461506012153636</v>
+        <v>9.319406773387627</v>
       </c>
       <c r="I25">
-        <v>6.090329989582127</v>
+        <v>5.693461400255403</v>
       </c>
       <c r="J25">
-        <v>5.655435610308103</v>
+        <v>6.443052583470801</v>
       </c>
       <c r="K25">
-        <v>10.78246983096345</v>
+        <v>10.1372733180205</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.38768567978008</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.644289908718145</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>110.1610036881932</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9.666806776983403</v>
+        <v>110.0881890663212</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>8.964113196704201</v>
       </c>
     </row>
   </sheetData>
